--- a/results/ROI_greedy/dataset_09/results_excel_13-9-22_synthetic_constrained_1_.xlsx
+++ b/results/ROI_greedy/dataset_09/results_excel_13-9-22_synthetic_constrained_1_.xlsx
@@ -639,67 +639,67 @@
         <v>50</v>
       </c>
       <c r="F2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G2">
-        <v>412.1685762400243</v>
+        <v>230.7939909959881</v>
       </c>
       <c r="H2">
-        <v>95.39406122318621</v>
+        <v>38.17691154802023</v>
       </c>
       <c r="I2">
-        <v>316.7745150168381</v>
+        <v>192.6170794479678</v>
       </c>
       <c r="J2">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="K2">
-        <v>316.7745150168381</v>
+        <v>192.6170794479679</v>
       </c>
       <c r="L2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M2">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="N2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="O2">
-        <v>412.1685762400243</v>
+        <v>230.7939909959881</v>
       </c>
       <c r="P2">
-        <v>95.39406122318621</v>
+        <v>38.17691154802023</v>
       </c>
       <c r="Q2">
-        <v>1.463416106107962</v>
+        <v>1.799294575603394</v>
       </c>
       <c r="R2">
-        <v>177.1733093957784</v>
+        <v>123.9255695863245</v>
       </c>
       <c r="S2">
-        <v>4.320694296426954</v>
+        <v>6.045381400370417</v>
       </c>
       <c r="T2">
-        <v>4.320694296426954</v>
+        <v>6.045381400370417</v>
       </c>
       <c r="U2">
-        <v>1.463416106107962</v>
+        <v>1.799294575603394</v>
       </c>
       <c r="V2">
-        <v>177.1733093957784</v>
+        <v>123.9255695863245</v>
       </c>
       <c r="W2">
-        <v>161.4450911389316</v>
+        <v>285.6025267078019</v>
       </c>
       <c r="X2">
         <v>478.2196061557697</v>
       </c>
       <c r="Y2">
-        <v>161.4450911389317</v>
+        <v>285.6025267078019</v>
       </c>
       <c r="Z2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:26">
@@ -719,67 +719,67 @@
         <v>50</v>
       </c>
       <c r="F3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G3">
-        <v>424.0362061602934</v>
+        <v>231.6073570392517</v>
       </c>
       <c r="H3">
-        <v>57.79299514122763</v>
+        <v>16.0700598947826</v>
       </c>
       <c r="I3">
-        <v>366.2432110190658</v>
+        <v>215.5372971444691</v>
       </c>
       <c r="J3">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="K3">
-        <v>378.5815993689988</v>
+        <v>257.5081828504664</v>
       </c>
       <c r="L3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M3">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="N3">
-        <v>0.9674089063744831</v>
+        <v>0.8370114485629002</v>
       </c>
       <c r="O3">
-        <v>467.5536963215355</v>
+        <v>283.2419598259677</v>
       </c>
       <c r="P3">
-        <v>88.97209695253665</v>
+        <v>25.7337769755013</v>
       </c>
       <c r="Q3">
-        <v>1.659191397386743</v>
+        <v>2.39849710587713</v>
       </c>
       <c r="R3">
-        <v>230.9598614978909</v>
+        <v>195.785793251439</v>
       </c>
       <c r="S3">
-        <v>5.255059870859943</v>
+        <v>11.00662215638286</v>
       </c>
       <c r="T3">
-        <v>7.337155742215546</v>
+        <v>14.41235182417999</v>
       </c>
       <c r="U3">
-        <v>1.992951266467935</v>
+        <v>2.66808560447936</v>
       </c>
       <c r="V3">
-        <v>251.064588159381</v>
+        <v>172.6610016760785</v>
       </c>
       <c r="W3">
-        <v>112.1223956300874</v>
+        <v>262.8283095046842</v>
       </c>
       <c r="X3">
         <v>478.3656066491532</v>
       </c>
       <c r="Y3">
-        <v>99.78400728015441</v>
+        <v>220.8574237986868</v>
       </c>
       <c r="Z3">
-        <v>1.123650960572185</v>
+        <v>1.190036110102661</v>
       </c>
     </row>
     <row r="4" spans="1:26">
@@ -799,67 +799,67 @@
         <v>50</v>
       </c>
       <c r="F4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G4">
-        <v>448.6684258825793</v>
+        <v>229.7266120386285</v>
       </c>
       <c r="H4">
-        <v>38.75888685751549</v>
+        <v>11.52677690089232</v>
       </c>
       <c r="I4">
-        <v>409.9095390250638</v>
+        <v>218.1998351377362</v>
       </c>
       <c r="J4">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="K4">
-        <v>445.7972018263266</v>
+        <v>259.6985395990607</v>
       </c>
       <c r="L4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M4">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="N4">
-        <v>0.919497783623945</v>
+        <v>0.8402043210354865</v>
       </c>
       <c r="O4">
-        <v>521.2717009190546</v>
+        <v>278.7605122904465</v>
       </c>
       <c r="P4">
-        <v>75.47449909272805</v>
+        <v>19.06197269138574</v>
       </c>
       <c r="Q4">
-        <v>1.932476565865139</v>
+        <v>2.682657642422174</v>
       </c>
       <c r="R4">
-        <v>299.9445010092199</v>
+        <v>208.561792878872</v>
       </c>
       <c r="S4">
-        <v>6.906593712912485</v>
+        <v>14.62390681193351</v>
       </c>
       <c r="T4">
-        <v>11.57588522941754</v>
+        <v>19.92982201475981</v>
       </c>
       <c r="U4">
-        <v>2.448924074751487</v>
+        <v>2.992217203666001</v>
       </c>
       <c r="V4">
-        <v>314.9919678891251</v>
+        <v>183.7092149920664</v>
       </c>
       <c r="W4">
-        <v>142.5017522815535</v>
+        <v>334.2114561688811</v>
       </c>
       <c r="X4">
         <v>552.4112913066173</v>
       </c>
       <c r="Y4">
-        <v>106.6140894802907</v>
+        <v>292.7127517075565</v>
       </c>
       <c r="Z4">
-        <v>1.336612758934618</v>
+        <v>1.141772793358812</v>
       </c>
     </row>
     <row r="5" spans="1:26">
@@ -879,67 +879,67 @@
         <v>50</v>
       </c>
       <c r="F5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G5">
-        <v>433.0050902211388</v>
+        <v>182.9695767745788</v>
       </c>
       <c r="H5">
-        <v>64.10779616383678</v>
+        <v>18.02705575261244</v>
       </c>
       <c r="I5">
-        <v>368.897294057302</v>
+        <v>164.9425210219664</v>
       </c>
       <c r="J5">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="K5">
-        <v>387.1730273903371</v>
+        <v>266.351210536168</v>
       </c>
       <c r="L5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M5">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="N5">
-        <v>0.9527969872895872</v>
+        <v>0.6192670222520681</v>
       </c>
       <c r="O5">
-        <v>450.4232113619458</v>
+        <v>299.4720256054616</v>
       </c>
       <c r="P5">
-        <v>63.25018397160873</v>
+        <v>33.12081506929357</v>
       </c>
       <c r="Q5">
-        <v>1.963089574247603</v>
+        <v>2.201859070744191</v>
       </c>
       <c r="R5">
-        <v>263.0072506664292</v>
+        <v>193.423843445403</v>
       </c>
       <c r="S5">
-        <v>7.121294881357633</v>
+        <v>9.041807243539221</v>
       </c>
       <c r="T5">
-        <v>6.754328118136075</v>
+        <v>10.14972046935969</v>
       </c>
       <c r="U5">
-        <v>1.910183502088654</v>
+        <v>2.317446165144002</v>
       </c>
       <c r="V5">
-        <v>246.4396394698787</v>
+        <v>123.1657897992376</v>
       </c>
       <c r="W5">
-        <v>154.6763561148633</v>
+        <v>358.6311291501989</v>
       </c>
       <c r="X5">
         <v>523.5736501721653</v>
       </c>
       <c r="Y5">
-        <v>136.4006227818282</v>
+        <v>257.2224396359974</v>
       </c>
       <c r="Z5">
-        <v>1.133985702999809</v>
+        <v>1.39424511196499</v>
       </c>
     </row>
     <row r="6" spans="1:26">
@@ -959,64 +959,64 @@
         <v>50</v>
       </c>
       <c r="F6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G6">
-        <v>489.2892406260157</v>
+        <v>273.0630472590049</v>
       </c>
       <c r="H6">
-        <v>81.81325462658531</v>
+        <v>27.16744389128417</v>
       </c>
       <c r="I6">
-        <v>407.4759859994304</v>
+        <v>245.8956033677208</v>
       </c>
       <c r="J6">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="K6">
-        <v>407.4759859994304</v>
+        <v>245.8956033677208</v>
       </c>
       <c r="L6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M6">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="N6">
         <v>1</v>
       </c>
       <c r="O6">
-        <v>489.2892406260157</v>
+        <v>273.0630472590049</v>
       </c>
       <c r="P6">
-        <v>81.81325462658531</v>
+        <v>27.16744389128417</v>
       </c>
       <c r="Q6">
-        <v>1.788514541251961</v>
+        <v>2.307683370197973</v>
       </c>
       <c r="R6">
-        <v>261.1517904326333</v>
+        <v>183.2017448890178</v>
       </c>
       <c r="S6">
-        <v>5.980561986676187</v>
+        <v>10.05111295533433</v>
       </c>
       <c r="T6">
-        <v>5.980561986676187</v>
+        <v>10.05111295533433</v>
       </c>
       <c r="U6">
-        <v>1.788514541251961</v>
+        <v>2.307683370197973</v>
       </c>
       <c r="V6">
-        <v>261.1517904326333</v>
+        <v>183.2017448890178</v>
       </c>
       <c r="W6">
-        <v>105.3003680787519</v>
+        <v>266.8807507104615</v>
       </c>
       <c r="X6">
         <v>512.7763540781823</v>
       </c>
       <c r="Y6">
-        <v>105.3003680787519</v>
+        <v>266.8807507104615</v>
       </c>
       <c r="Z6">
         <v>1</v>
@@ -1039,67 +1039,67 @@
         <v>50</v>
       </c>
       <c r="F7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G7">
-        <v>451.5226622599564</v>
+        <v>255.154843708259</v>
       </c>
       <c r="H7">
-        <v>53.36275390677535</v>
+        <v>17.08445688044328</v>
       </c>
       <c r="I7">
-        <v>398.159908353181</v>
+        <v>238.0703868278158</v>
       </c>
       <c r="J7">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="K7">
-        <v>414.3483706240805</v>
+        <v>258.8919524626767</v>
       </c>
       <c r="L7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M7">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="N7">
-        <v>0.9609303102929623</v>
+        <v>0.9195743033462475</v>
       </c>
       <c r="O7">
-        <v>481.6271516154353</v>
+        <v>301.5673605856303</v>
       </c>
       <c r="P7">
-        <v>67.27878099135478</v>
+        <v>42.67540812295366</v>
       </c>
       <c r="Q7">
-        <v>1.96832537328394</v>
+        <v>1.955370577258947</v>
       </c>
       <c r="R7">
-        <v>281.9218389151837</v>
+        <v>175.4457150465356</v>
       </c>
       <c r="S7">
-        <v>7.158678330948411</v>
+        <v>7.066537236545547</v>
       </c>
       <c r="T7">
-        <v>8.46138231637681</v>
+        <v>14.93491104188023</v>
       </c>
       <c r="U7">
-        <v>2.135512554641507</v>
+        <v>2.703701495298157</v>
       </c>
       <c r="V7">
-        <v>284.2030774350172</v>
+        <v>191.8791152138044</v>
       </c>
       <c r="W7">
-        <v>122.8406142769221</v>
+        <v>282.9301358022873</v>
       </c>
       <c r="X7">
         <v>521.0005226301031</v>
       </c>
       <c r="Y7">
-        <v>106.6521520060226</v>
+        <v>262.1085701674264</v>
       </c>
       <c r="Z7">
-        <v>1.151787488263578</v>
+        <v>1.079438705958988</v>
       </c>
     </row>
     <row r="8" spans="1:26">
@@ -1119,67 +1119,67 @@
         <v>50</v>
       </c>
       <c r="F8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G8">
-        <v>447.5226631229095</v>
+        <v>195.9671635796194</v>
       </c>
       <c r="H8">
-        <v>54.07782462031719</v>
+        <v>12.6350156231123</v>
       </c>
       <c r="I8">
-        <v>393.4448385025923</v>
+        <v>183.3321479565071</v>
       </c>
       <c r="J8">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="K8">
-        <v>408.2192131333358</v>
+        <v>242.91942705006</v>
       </c>
       <c r="L8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M8">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="N8">
-        <v>0.9638077431061095</v>
+        <v>0.7547035252916461</v>
       </c>
       <c r="O8">
-        <v>475.9860232277125</v>
+        <v>280.3644216600027</v>
       </c>
       <c r="P8">
-        <v>67.76681009437668</v>
+        <v>37.44499460994281</v>
       </c>
       <c r="Q8">
-        <v>1.94931594237587</v>
+        <v>2.013217217117814</v>
       </c>
       <c r="R8">
-        <v>276.1202898524093</v>
+        <v>167.5345192064393</v>
       </c>
       <c r="S8">
-        <v>7.02388119737113</v>
+        <v>7.48736712557991</v>
       </c>
       <c r="T8">
-        <v>8.275530058115057</v>
+        <v>15.50984735002236</v>
       </c>
       <c r="U8">
-        <v>2.113302974573006</v>
+        <v>2.741475135104061</v>
       </c>
       <c r="V8">
-        <v>279.1620108740386</v>
+        <v>148.6935667940934</v>
       </c>
       <c r="W8">
-        <v>161.8958273688431</v>
+        <v>372.0085179149282</v>
       </c>
       <c r="X8">
         <v>555.3406658714354</v>
       </c>
       <c r="Y8">
-        <v>147.1214527380995</v>
+        <v>312.4212388213754</v>
       </c>
       <c r="Z8">
-        <v>1.100422979489228</v>
+        <v>1.190727363217523</v>
       </c>
     </row>
     <row r="9" spans="1:26">
@@ -1199,67 +1199,67 @@
         <v>50</v>
       </c>
       <c r="F9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G9">
-        <v>454.4235578423179</v>
+        <v>197.4220561834111</v>
       </c>
       <c r="H9">
-        <v>66.69105650237096</v>
+        <v>12.50071234554235</v>
       </c>
       <c r="I9">
-        <v>387.732501339947</v>
+        <v>184.9213438378688</v>
       </c>
       <c r="J9">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="K9">
-        <v>403.9570677644259</v>
+        <v>220.8719254265128</v>
       </c>
       <c r="L9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M9">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="N9">
-        <v>0.9598359139641528</v>
+        <v>0.8372333581136583</v>
       </c>
       <c r="O9">
-        <v>482.4052648688771</v>
+        <v>242.9655287293755</v>
       </c>
       <c r="P9">
-        <v>78.44819710445111</v>
+        <v>22.09360330286279</v>
       </c>
       <c r="Q9">
-        <v>1.816346061805898</v>
+        <v>2.39763145287959</v>
       </c>
       <c r="R9">
-        <v>261.4679938979834</v>
+        <v>167.8996072401245</v>
       </c>
       <c r="S9">
-        <v>6.149348011485475</v>
+        <v>10.99709836366498</v>
       </c>
       <c r="T9">
-        <v>6.81386053355089</v>
+        <v>15.79286449654289</v>
       </c>
       <c r="U9">
-        <v>1.918958851396626</v>
+        <v>2.759558223881685</v>
       </c>
       <c r="V9">
-        <v>259.7551081557297</v>
+        <v>150.4249002803481</v>
       </c>
       <c r="W9">
-        <v>149.9456552293385</v>
+        <v>352.7568127314166</v>
       </c>
       <c r="X9">
         <v>537.6781565692854</v>
       </c>
       <c r="Y9">
-        <v>133.7210888048595</v>
+        <v>316.8062311427726</v>
       </c>
       <c r="Z9">
-        <v>1.121331396337609</v>
+        <v>1.113478139173476</v>
       </c>
     </row>
     <row r="10" spans="1:26">
@@ -1279,67 +1279,67 @@
         <v>50</v>
       </c>
       <c r="F10">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G10">
-        <v>367.436797319912</v>
+        <v>181.1157249715569</v>
       </c>
       <c r="H10">
-        <v>72.34319326280071</v>
+        <v>20.32064452795764</v>
       </c>
       <c r="I10">
-        <v>295.0936040571113</v>
+        <v>160.7950804435992</v>
       </c>
       <c r="J10">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="K10">
-        <v>307.3916736975284</v>
+        <v>211.1114514106568</v>
       </c>
       <c r="L10">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M10">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="N10">
-        <v>0.9599921836122397</v>
+        <v>0.7616596796107403</v>
       </c>
       <c r="O10">
-        <v>398.8029626731476</v>
+        <v>248.5879288004344</v>
       </c>
       <c r="P10">
-        <v>91.41128897561912</v>
+        <v>37.47647738977754</v>
       </c>
       <c r="Q10">
-        <v>1.473098484428451</v>
+        <v>1.892083154627279</v>
       </c>
       <c r="R10">
-        <v>172.7338424478928</v>
+        <v>140.2028398466886</v>
       </c>
       <c r="S10">
-        <v>4.36273207764869</v>
+        <v>6.633172222004026</v>
       </c>
       <c r="T10">
-        <v>5.079079050120534</v>
+        <v>8.912892734399907</v>
       </c>
       <c r="U10">
-        <v>1.625129955809139</v>
+        <v>2.187498850340373</v>
       </c>
       <c r="V10">
-        <v>177.526513586844</v>
+        <v>116.3436939005165</v>
       </c>
       <c r="W10">
-        <v>152.5036797300652</v>
+        <v>286.8022033435773</v>
       </c>
       <c r="X10">
         <v>447.5972837871765</v>
       </c>
       <c r="Y10">
-        <v>140.2056100896481</v>
+        <v>236.4858323765197</v>
       </c>
       <c r="Z10">
-        <v>1.087714533195595</v>
+        <v>1.212766957163618</v>
       </c>
     </row>
     <row r="11" spans="1:26">
@@ -1359,67 +1359,67 @@
         <v>50</v>
       </c>
       <c r="F11">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G11">
-        <v>419.8258580980968</v>
+        <v>200.2470428142124</v>
       </c>
       <c r="H11">
-        <v>48.78444973790303</v>
+        <v>13.11756609448071</v>
       </c>
       <c r="I11">
-        <v>371.0414083601938</v>
+        <v>187.1294767197317</v>
       </c>
       <c r="J11">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="K11">
-        <v>421.4701346322442</v>
+        <v>228.0344728968007</v>
       </c>
       <c r="L11">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M11">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="N11">
-        <v>0.8803504160121518</v>
+        <v>0.8206192438474819</v>
       </c>
       <c r="O11">
-        <v>497.8795435321354</v>
+        <v>253.3923283527472</v>
       </c>
       <c r="P11">
-        <v>76.40940889989116</v>
+        <v>25.35785545594647</v>
       </c>
       <c r="Q11">
-        <v>1.874252325579612</v>
+        <v>2.301850430624389</v>
       </c>
       <c r="R11">
-        <v>278.2596223054597</v>
+        <v>169.6644823958193</v>
       </c>
       <c r="S11">
-        <v>6.515945492844201</v>
+        <v>9.99265607428668</v>
       </c>
       <c r="T11">
-        <v>8.605731136737893</v>
+        <v>15.26556385322635</v>
       </c>
       <c r="U11">
-        <v>2.152428392554681</v>
+        <v>2.725599563154604</v>
       </c>
       <c r="V11">
-        <v>266.0363736291746</v>
+        <v>151.3762443029634</v>
       </c>
       <c r="W11">
-        <v>191.1593560004011</v>
+        <v>375.0712876408633</v>
       </c>
       <c r="X11">
         <v>562.2007643605949</v>
       </c>
       <c r="Y11">
-        <v>140.7306297283507</v>
+        <v>334.1662914637943</v>
       </c>
       <c r="Z11">
-        <v>1.358335114178</v>
+        <v>1.122409103557056</v>
       </c>
     </row>
     <row r="12" spans="1:26">
@@ -1439,67 +1439,67 @@
         <v>50</v>
       </c>
       <c r="F12">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G12">
-        <v>418.3922669200465</v>
+        <v>196.5831636717779</v>
       </c>
       <c r="H12">
-        <v>44.64749376823394</v>
+        <v>8.402835684153885</v>
       </c>
       <c r="I12">
-        <v>373.7447731518125</v>
+        <v>188.180327987624</v>
       </c>
       <c r="J12">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="K12">
-        <v>404.8735988084117</v>
+        <v>308.4738822357438</v>
       </c>
       <c r="L12">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M12">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="N12">
-        <v>0.9231147060509384</v>
+        <v>0.6100365017087953</v>
       </c>
       <c r="O12">
-        <v>462.6012897639939</v>
+        <v>415.9982160556565</v>
       </c>
       <c r="P12">
-        <v>57.72769095558216</v>
+        <v>107.5243338199128</v>
       </c>
       <c r="Q12">
-        <v>2.081128566901605</v>
+        <v>1.352963788856946</v>
       </c>
       <c r="R12">
-        <v>284.7348520594823</v>
+        <v>162.9973521564354</v>
       </c>
       <c r="S12">
-        <v>8.01350759239507</v>
+        <v>3.868875084149708</v>
       </c>
       <c r="T12">
-        <v>9.371013501719252</v>
+        <v>23.39485990931556</v>
       </c>
       <c r="U12">
-        <v>2.237621254938776</v>
+        <v>3.152516336239364</v>
       </c>
       <c r="V12">
-        <v>273.8405921162657</v>
+        <v>161.6902512225938</v>
       </c>
       <c r="W12">
-        <v>137.5463712536406</v>
+        <v>323.1108164178291</v>
       </c>
       <c r="X12">
         <v>511.2911444054531</v>
       </c>
       <c r="Y12">
-        <v>106.4175455970414</v>
+        <v>202.8172621697094</v>
       </c>
       <c r="Z12">
-        <v>1.292515914381929</v>
+        <v>1.593112997193813</v>
       </c>
     </row>
     <row r="13" spans="1:26">
@@ -1519,67 +1519,67 @@
         <v>50</v>
       </c>
       <c r="F13">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G13">
-        <v>449.8266996986751</v>
+        <v>214.0984523635436</v>
       </c>
       <c r="H13">
-        <v>47.99698994529555</v>
+        <v>14.81200182349316</v>
       </c>
       <c r="I13">
-        <v>401.8297097533796</v>
+        <v>199.2864505400504</v>
       </c>
       <c r="J13">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="K13">
-        <v>425.9044136119894</v>
+        <v>277.2227544246128</v>
       </c>
       <c r="L13">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M13">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="N13">
-        <v>0.9434739272729337</v>
+        <v>0.718867579804831</v>
       </c>
       <c r="O13">
-        <v>508.7130978629065</v>
+        <v>337.622191840096</v>
       </c>
       <c r="P13">
-        <v>82.8086842509171</v>
+        <v>60.39943741548325</v>
       </c>
       <c r="Q13">
-        <v>1.815351261063907</v>
+        <v>1.720947704100717</v>
       </c>
       <c r="R13">
-        <v>275.5775642300441</v>
+        <v>173.278481275462</v>
       </c>
       <c r="S13">
-        <v>6.143233677297228</v>
+        <v>5.58982345344739</v>
       </c>
       <c r="T13">
-        <v>9.371977288812568</v>
+        <v>14.4543900895262</v>
       </c>
       <c r="U13">
-        <v>2.237724097340497</v>
+        <v>2.670998180840751</v>
       </c>
       <c r="V13">
-        <v>294.4256887529822</v>
+        <v>159.7236206148903</v>
       </c>
       <c r="W13">
-        <v>144.3392859592448</v>
+        <v>346.8825451725739</v>
       </c>
       <c r="X13">
         <v>546.1689957126243</v>
       </c>
       <c r="Y13">
-        <v>120.2645821006349</v>
+        <v>268.9462412880115</v>
       </c>
       <c r="Z13">
-        <v>1.200181162550955</v>
+        <v>1.289783949057319</v>
       </c>
     </row>
     <row r="14" spans="1:26">
@@ -1599,67 +1599,67 @@
         <v>50</v>
       </c>
       <c r="F14">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G14">
-        <v>491.9246229971805</v>
+        <v>232.8365309641556</v>
       </c>
       <c r="H14">
-        <v>91.64628089242009</v>
+        <v>25.17590163995925</v>
       </c>
       <c r="I14">
-        <v>400.2783421047604</v>
+        <v>207.6606293241963</v>
       </c>
       <c r="J14">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="K14">
-        <v>400.2783421047603</v>
+        <v>306.8593045953947</v>
       </c>
       <c r="L14">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M14">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="N14">
-        <v>1</v>
+        <v>0.6767291270440845</v>
       </c>
       <c r="O14">
-        <v>491.9246229971805</v>
+        <v>420.6194398029015</v>
       </c>
       <c r="P14">
-        <v>91.64628089242009</v>
+        <v>113.7601352075067</v>
       </c>
       <c r="Q14">
-        <v>1.680389105463324</v>
+        <v>1.307636326830914</v>
       </c>
       <c r="R14">
-        <v>246.2769301369061</v>
+        <v>158.1024192528625</v>
       </c>
       <c r="S14">
-        <v>5.367644144497595</v>
+        <v>3.697423873799562</v>
       </c>
       <c r="T14">
-        <v>5.367644144497595</v>
+        <v>9.248388967114366</v>
       </c>
       <c r="U14">
-        <v>1.680389105463324</v>
+        <v>2.224449370638358</v>
       </c>
       <c r="V14">
-        <v>246.2769301369061</v>
+        <v>151.6581107659358</v>
       </c>
       <c r="W14">
-        <v>109.4513946491932</v>
+        <v>302.0691074297573</v>
       </c>
       <c r="X14">
         <v>509.7297367539537</v>
       </c>
       <c r="Y14">
-        <v>109.4513946491934</v>
+        <v>202.8704321585589</v>
       </c>
       <c r="Z14">
-        <v>0.9999999999999984</v>
+        <v>1.488975521054083</v>
       </c>
     </row>
     <row r="15" spans="1:26">
@@ -1679,67 +1679,67 @@
         <v>50</v>
       </c>
       <c r="F15">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G15">
-        <v>555.2819634861354</v>
+        <v>302.9937045265925</v>
       </c>
       <c r="H15">
-        <v>85.95330567014793</v>
+        <v>24.57976739866773</v>
       </c>
       <c r="I15">
-        <v>469.3286578159875</v>
+        <v>278.4139371279248</v>
       </c>
       <c r="J15">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="K15">
-        <v>469.3286578159872</v>
+        <v>390.6900942415537</v>
       </c>
       <c r="L15">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M15">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="N15">
-        <v>1</v>
+        <v>0.7126209269994662</v>
       </c>
       <c r="O15">
-        <v>555.2819634861354</v>
+        <v>472.1998571462665</v>
       </c>
       <c r="P15">
-        <v>85.95330567014793</v>
+        <v>81.50976290471294</v>
       </c>
       <c r="Q15">
-        <v>1.865671835579049</v>
+        <v>1.756679518808926</v>
       </c>
       <c r="R15">
-        <v>308.9679962522755</v>
+        <v>247.5035631638728</v>
       </c>
       <c r="S15">
-        <v>6.460274670727271</v>
+        <v>5.793169312715098</v>
       </c>
       <c r="T15">
-        <v>6.460274670727271</v>
+        <v>12.3269557279462</v>
       </c>
       <c r="U15">
-        <v>1.865671835579049</v>
+        <v>2.511788387092681</v>
       </c>
       <c r="V15">
-        <v>308.9679962522755</v>
+        <v>216.6747628185119</v>
       </c>
       <c r="W15">
-        <v>116.9910186346852</v>
+        <v>307.9057393227479</v>
       </c>
       <c r="X15">
         <v>586.3196764506727</v>
       </c>
       <c r="Y15">
-        <v>116.9910186346854</v>
+        <v>195.629582209119</v>
       </c>
       <c r="Z15">
-        <v>0.999999999999998</v>
+        <v>1.57392218418997</v>
       </c>
     </row>
     <row r="16" spans="1:26">
@@ -1759,67 +1759,67 @@
         <v>50</v>
       </c>
       <c r="F16">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G16">
-        <v>405.0064507809799</v>
+        <v>244.4870981171838</v>
       </c>
       <c r="H16">
-        <v>62.16684949665081</v>
+        <v>26.82904053071058</v>
       </c>
       <c r="I16">
-        <v>342.8396012843291</v>
+        <v>217.6580575864732</v>
       </c>
       <c r="J16">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="K16">
-        <v>394.0685958941361</v>
+        <v>300.4613477025893</v>
       </c>
       <c r="L16">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M16">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="N16">
-        <v>0.8699998042382212</v>
+        <v>0.7244128379598473</v>
       </c>
       <c r="O16">
-        <v>515.1078073503331</v>
+        <v>348.3457122435915</v>
       </c>
       <c r="P16">
-        <v>121.0392114561971</v>
+        <v>47.88436454100227</v>
       </c>
       <c r="Q16">
-        <v>1.448261658695556</v>
+        <v>1.984406380278322</v>
       </c>
       <c r="R16">
-        <v>218.772146743382</v>
+        <v>205.4393091918513</v>
       </c>
       <c r="S16">
-        <v>4.255710204595523</v>
+        <v>7.274727681627918</v>
       </c>
       <c r="T16">
-        <v>6.51482991433882</v>
+        <v>9.112778291021069</v>
       </c>
       <c r="U16">
-        <v>1.874081103457635</v>
+        <v>2.209677636349506</v>
       </c>
       <c r="V16">
-        <v>226.3338833811611</v>
+        <v>158.3745267210475</v>
       </c>
       <c r="W16">
-        <v>182.1966693388477</v>
+        <v>307.3782130367036</v>
       </c>
       <c r="X16">
         <v>525.0362706231768</v>
       </c>
       <c r="Y16">
-        <v>130.9676747290407</v>
+        <v>224.5749229205875</v>
       </c>
       <c r="Z16">
-        <v>1.391157548729446</v>
+        <v>1.368711203545181</v>
       </c>
     </row>
     <row r="17" spans="1:26">
@@ -1839,67 +1839,67 @@
         <v>50</v>
       </c>
       <c r="F17">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G17">
-        <v>455.383291266428</v>
+        <v>260.4473177789901</v>
       </c>
       <c r="H17">
-        <v>51.9170310535815</v>
+        <v>14.08409782693418</v>
       </c>
       <c r="I17">
-        <v>403.4662602128465</v>
+        <v>246.3632199520559</v>
       </c>
       <c r="J17">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="K17">
-        <v>437.3962102547087</v>
+        <v>335.3386756035138</v>
       </c>
       <c r="L17">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M17">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="N17">
-        <v>0.9224274256466378</v>
+        <v>0.7346698662439474</v>
       </c>
       <c r="O17">
-        <v>520.6390650979331</v>
+        <v>374.8852493269641</v>
       </c>
       <c r="P17">
-        <v>83.24285484322451</v>
+        <v>39.54657372345018</v>
       </c>
       <c r="Q17">
-        <v>1.833294730882407</v>
+        <v>2.249140918404937</v>
       </c>
       <c r="R17">
-        <v>284.7875230870161</v>
+        <v>246.3928584593847</v>
       </c>
       <c r="S17">
-        <v>6.25445950980993</v>
+        <v>9.479588597195363</v>
       </c>
       <c r="T17">
-        <v>8.771366197663442</v>
+        <v>18.49229684282051</v>
       </c>
       <c r="U17">
-        <v>2.171492575056932</v>
+        <v>2.917354258496626</v>
       </c>
       <c r="V17">
-        <v>290.7288127609941</v>
+        <v>205.2749171795664</v>
       </c>
       <c r="W17">
-        <v>132.8282460774691</v>
+        <v>289.9312863382596</v>
       </c>
       <c r="X17">
         <v>536.2945062903156</v>
       </c>
       <c r="Y17">
-        <v>98.89829603560685</v>
+        <v>200.9558306868017</v>
       </c>
       <c r="Z17">
-        <v>1.343079217761712</v>
+        <v>1.442761254288411</v>
       </c>
     </row>
     <row r="18" spans="1:26">
@@ -1919,67 +1919,67 @@
         <v>50</v>
       </c>
       <c r="F18">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G18">
-        <v>481.9863823675741</v>
+        <v>235.8821728681015</v>
       </c>
       <c r="H18">
-        <v>56.21549474395007</v>
+        <v>20.51550272259684</v>
       </c>
       <c r="I18">
-        <v>425.770887623624</v>
+        <v>215.3666701455047</v>
       </c>
       <c r="J18">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="K18">
-        <v>425.7708876236239</v>
+        <v>289.9154045641641</v>
       </c>
       <c r="L18">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M18">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="N18">
-        <v>1</v>
+        <v>0.7428603887719242</v>
       </c>
       <c r="O18">
-        <v>481.9863823675741</v>
+        <v>421.1499662278823</v>
       </c>
       <c r="P18">
-        <v>56.21549474395007</v>
+        <v>131.2345616637182</v>
       </c>
       <c r="Q18">
-        <v>2.148723435214937</v>
+        <v>1.166002715437103</v>
       </c>
       <c r="R18">
-        <v>304.9793366450964</v>
+        <v>136.8955493050707</v>
       </c>
       <c r="S18">
-        <v>8.573906261306107</v>
+        <v>3.209139123785527</v>
       </c>
       <c r="T18">
-        <v>8.573906261306107</v>
+        <v>11.49775250734112</v>
       </c>
       <c r="U18">
-        <v>2.148723435214937</v>
+        <v>2.442151582125213</v>
       </c>
       <c r="V18">
-        <v>304.9793366450964</v>
+        <v>165.2647027134207</v>
       </c>
       <c r="W18">
-        <v>130.3900975173497</v>
+        <v>340.7943149954691</v>
       </c>
       <c r="X18">
         <v>556.1609851409737</v>
       </c>
       <c r="Y18">
-        <v>130.3900975173498</v>
+        <v>266.2455805768096</v>
       </c>
       <c r="Z18">
-        <v>0.9999999999999991</v>
+        <v>1.279999894297411</v>
       </c>
     </row>
     <row r="19" spans="1:26">
@@ -1999,67 +1999,67 @@
         <v>50</v>
       </c>
       <c r="F19">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G19">
-        <v>458.9199452972163</v>
+        <v>174.1550062522406</v>
       </c>
       <c r="H19">
-        <v>61.80079330543535</v>
+        <v>17.37702703892265</v>
       </c>
       <c r="I19">
-        <v>397.1191519917809</v>
+        <v>156.7779792133179</v>
       </c>
       <c r="J19">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="K19">
-        <v>419.3183567176588</v>
+        <v>287.34191685835</v>
       </c>
       <c r="L19">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M19">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="N19">
-        <v>0.9470588292397955</v>
+        <v>0.5456147189642514</v>
       </c>
       <c r="O19">
-        <v>493.3585999816748</v>
+        <v>362.8039938797115</v>
       </c>
       <c r="P19">
-        <v>74.04024326401597</v>
+        <v>75.46207702136142</v>
       </c>
       <c r="Q19">
-        <v>1.896627519682138</v>
+        <v>1.570232487712373</v>
       </c>
       <c r="R19">
-        <v>278.8915937791661</v>
+        <v>168.8489119291551</v>
       </c>
       <c r="S19">
-        <v>6.663384373582282</v>
+        <v>4.807765810328952</v>
       </c>
       <c r="T19">
-        <v>7.425793760107841</v>
+        <v>10.02214048825224</v>
       </c>
       <c r="U19">
-        <v>2.004959582693196</v>
+        <v>2.304796694424937</v>
       </c>
       <c r="V19">
-        <v>273.2110592360068</v>
+        <v>116.7274647350763</v>
       </c>
       <c r="W19">
-        <v>138.3652957636293</v>
+        <v>378.7064685420922</v>
       </c>
       <c r="X19">
         <v>535.4844477554102</v>
       </c>
       <c r="Y19">
-        <v>116.1660910377514</v>
+        <v>248.1425308970602</v>
       </c>
       <c r="Z19">
-        <v>1.191098835534233</v>
+        <v>1.526165092187262</v>
       </c>
     </row>
     <row r="20" spans="1:26">
@@ -2079,67 +2079,67 @@
         <v>50</v>
       </c>
       <c r="F20">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G20">
-        <v>531.2647324929367</v>
+        <v>293.7637393843011</v>
       </c>
       <c r="H20">
-        <v>76.54900166790794</v>
+        <v>29.02136555685551</v>
       </c>
       <c r="I20">
-        <v>454.7157308250287</v>
+        <v>264.7423738274455</v>
       </c>
       <c r="J20">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="K20">
-        <v>454.7157308250289</v>
+        <v>369.1263077810806</v>
       </c>
       <c r="L20">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M20">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="N20">
-        <v>0.9999999999999998</v>
+        <v>0.7172135072649916</v>
       </c>
       <c r="O20">
-        <v>531.2647324929367</v>
+        <v>432.546919022818</v>
       </c>
       <c r="P20">
-        <v>76.54900166790794</v>
+        <v>63.4206112417376</v>
       </c>
       <c r="Q20">
-        <v>1.937329371155674</v>
+        <v>1.919901896717551</v>
       </c>
       <c r="R20">
-        <v>306.415101561146</v>
+        <v>247.364955967082</v>
       </c>
       <c r="S20">
-        <v>6.940191523303192</v>
+        <v>6.820289343697707</v>
       </c>
       <c r="T20">
-        <v>6.940191523303192</v>
+        <v>10.1223265600232</v>
       </c>
       <c r="U20">
-        <v>1.937329371155674</v>
+        <v>2.314743534672494</v>
       </c>
       <c r="V20">
-        <v>306.415101561146</v>
+        <v>197.5653555373472</v>
       </c>
       <c r="W20">
-        <v>105.9038053510268</v>
+        <v>295.8771623486101</v>
       </c>
       <c r="X20">
         <v>560.6195361760556</v>
       </c>
       <c r="Y20">
-        <v>105.9038053510267</v>
+        <v>191.493228394975</v>
       </c>
       <c r="Z20">
-        <v>1.000000000000001</v>
+        <v>1.545105092376072</v>
       </c>
     </row>
     <row r="21" spans="1:26">
@@ -2159,67 +2159,67 @@
         <v>50</v>
       </c>
       <c r="F21">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G21">
-        <v>444.905437976977</v>
+        <v>211.8563988309308</v>
       </c>
       <c r="H21">
-        <v>108.1135395190821</v>
+        <v>33.23409490026684</v>
       </c>
       <c r="I21">
-        <v>336.7918984578949</v>
+        <v>178.6223039306639</v>
       </c>
       <c r="J21">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="K21">
-        <v>362.093228494575</v>
+        <v>265.5299125510287</v>
       </c>
       <c r="L21">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M21">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="N21">
-        <v>0.9301248185671078</v>
+        <v>0.6727012494170006</v>
       </c>
       <c r="O21">
-        <v>476.973472161071</v>
+        <v>322.1264147627818</v>
       </c>
       <c r="P21">
-        <v>114.880243666496</v>
+        <v>56.59650221175315</v>
       </c>
       <c r="Q21">
-        <v>1.423570649073707</v>
+        <v>1.738996876010544</v>
       </c>
       <c r="R21">
-        <v>198.5530854525156</v>
+        <v>167.1087720116661</v>
       </c>
       <c r="S21">
-        <v>4.15191905011755</v>
+        <v>5.69163114634825</v>
       </c>
       <c r="T21">
-        <v>4.115168552949382</v>
+        <v>6.374670333785132</v>
       </c>
       <c r="U21">
-        <v>1.414679793909704</v>
+        <v>1.85233237735993</v>
       </c>
       <c r="V21">
-        <v>183.8458586521912</v>
+        <v>117.0617139146471</v>
       </c>
       <c r="W21">
-        <v>140.1815737031762</v>
+        <v>298.3511682304072</v>
       </c>
       <c r="X21">
         <v>476.9734721610711</v>
       </c>
       <c r="Y21">
-        <v>114.8802436664961</v>
+        <v>211.4435596100424</v>
       </c>
       <c r="Z21">
-        <v>1.220240915488753</v>
+        <v>1.411020362978401</v>
       </c>
     </row>
     <row r="22" spans="1:26">
@@ -2239,67 +2239,67 @@
         <v>50</v>
       </c>
       <c r="F22">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G22">
-        <v>504.9132180088168</v>
+        <v>328.1781895777219</v>
       </c>
       <c r="H22">
-        <v>27.40646796987416</v>
+        <v>4.620029638177815</v>
       </c>
       <c r="I22">
-        <v>477.5067500389427</v>
+        <v>323.5581599395441</v>
       </c>
       <c r="J22">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="K22">
-        <v>519.4752439437882</v>
+        <v>358.9055269285175</v>
       </c>
       <c r="L22">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M22">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="N22">
-        <v>0.9192098287760044</v>
+        <v>0.9015134503737708</v>
       </c>
       <c r="O22">
-        <v>559.526617680234</v>
+        <v>374.7923865089813</v>
       </c>
       <c r="P22">
-        <v>40.05137373644595</v>
+        <v>15.88685958046365</v>
       </c>
       <c r="Q22">
-        <v>2.636928127207449</v>
+        <v>3.160879910626495</v>
       </c>
       <c r="R22">
-        <v>413.8626500048561</v>
+        <v>308.689071637686</v>
       </c>
       <c r="S22">
-        <v>13.97022287829983</v>
+        <v>23.59134507425685</v>
       </c>
       <c r="T22">
-        <v>18.42314079157626</v>
+        <v>71.03378447311403</v>
       </c>
       <c r="U22">
-        <v>2.913607526149568</v>
+        <v>4.263155601515975</v>
       </c>
       <c r="V22">
-        <v>397.6550586967403</v>
+        <v>303.8622547083766</v>
       </c>
       <c r="W22">
-        <v>82.01986764129134</v>
+        <v>235.9684577406899</v>
       </c>
       <c r="X22">
         <v>559.526617680234</v>
       </c>
       <c r="Y22">
-        <v>40.05137373644584</v>
+        <v>200.6210907517166</v>
       </c>
       <c r="Z22">
-        <v>2.047866527151231</v>
+        <v>1.176189686022186</v>
       </c>
     </row>
     <row r="23" spans="1:26">
@@ -2319,67 +2319,67 @@
         <v>50</v>
       </c>
       <c r="F23">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G23">
-        <v>423.6731912065964</v>
+        <v>231.9429889270301</v>
       </c>
       <c r="H23">
-        <v>15.07262135348252</v>
+        <v>4.418906006300054</v>
       </c>
       <c r="I23">
-        <v>408.6005698531139</v>
+        <v>227.52408292073</v>
       </c>
       <c r="J23">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="K23">
-        <v>463.3278609220583</v>
+        <v>296.9579787478386</v>
       </c>
       <c r="L23">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M23">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="N23">
-        <v>0.8818821493703555</v>
+        <v>0.7661827571702721</v>
       </c>
       <c r="O23">
-        <v>493.0456122075747</v>
+        <v>318.6587658922971</v>
       </c>
       <c r="P23">
-        <v>29.71775128551649</v>
+        <v>21.70078714445859</v>
       </c>
       <c r="Q23">
-        <v>2.808857135807515</v>
+        <v>2.686772297024211</v>
       </c>
       <c r="R23">
-        <v>379.8549431635823</v>
+        <v>238.652905024488</v>
       </c>
       <c r="S23">
-        <v>16.59094618131049</v>
+        <v>14.68420310152981</v>
       </c>
       <c r="T23">
-        <v>28.10879284171143</v>
+        <v>52.48878084221478</v>
       </c>
       <c r="U23">
-        <v>3.33608243990921</v>
+        <v>3.960599448517327</v>
       </c>
       <c r="V23">
-        <v>358.3170624323602</v>
+        <v>210.0225662291281</v>
       </c>
       <c r="W23">
-        <v>98.43777064973142</v>
+        <v>279.5142575821153</v>
       </c>
       <c r="X23">
         <v>507.0383405028453</v>
       </c>
       <c r="Y23">
-        <v>43.71047958078702</v>
+        <v>210.0803617550067</v>
       </c>
       <c r="Z23">
-        <v>2.252040508221736</v>
+        <v>1.330511120825666</v>
       </c>
     </row>
     <row r="24" spans="1:26">
@@ -2399,67 +2399,67 @@
         <v>50</v>
       </c>
       <c r="F24">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G24">
-        <v>487.9097167731053</v>
+        <v>265.9491229953895</v>
       </c>
       <c r="H24">
-        <v>26.49183746609855</v>
+        <v>5.95923029688861</v>
       </c>
       <c r="I24">
-        <v>461.4178793070068</v>
+        <v>259.9898926985009</v>
       </c>
       <c r="J24">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="K24">
-        <v>468.524481235491</v>
+        <v>309.9798888976302</v>
       </c>
       <c r="L24">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M24">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="N24">
-        <v>0.9848319517696403</v>
+        <v>0.8387314855266681</v>
       </c>
       <c r="O24">
-        <v>499.7443452506243</v>
+        <v>324.5934437629356</v>
       </c>
       <c r="P24">
-        <v>31.21986401513325</v>
+        <v>14.6135548653054</v>
       </c>
       <c r="Q24">
-        <v>2.773042098779568</v>
+        <v>3.100623943545315</v>
       </c>
       <c r="R24">
-        <v>381.9504840033532</v>
+        <v>264.6687507819511</v>
       </c>
       <c r="S24">
-        <v>16.00725566928743</v>
+        <v>22.21180587165449</v>
       </c>
       <c r="T24">
-        <v>18.41736034344467</v>
+        <v>44.62809956081828</v>
       </c>
       <c r="U24">
-        <v>2.913293716727821</v>
+        <v>3.798363695633219</v>
       </c>
       <c r="V24">
-        <v>384.2393756724472</v>
+        <v>237.3545686848817</v>
       </c>
       <c r="W24">
-        <v>62.19490504921981</v>
+        <v>263.6228916577257</v>
       </c>
       <c r="X24">
         <v>523.6127843562266</v>
       </c>
       <c r="Y24">
-        <v>55.08830312073565</v>
+        <v>213.6328954585964</v>
       </c>
       <c r="Z24">
-        <v>1.129003827053972</v>
+        <v>1.233999525643361</v>
       </c>
     </row>
     <row r="25" spans="1:26">
@@ -2479,67 +2479,67 @@
         <v>50</v>
       </c>
       <c r="F25">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G25">
-        <v>467.4847270875602</v>
+        <v>227.3191050854858</v>
       </c>
       <c r="H25">
-        <v>24.76446078575439</v>
+        <v>5.0949742706518</v>
       </c>
       <c r="I25">
-        <v>442.7202663018058</v>
+        <v>222.224130814834</v>
       </c>
       <c r="J25">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="K25">
-        <v>444.7689022907793</v>
+        <v>296.6278663434629</v>
       </c>
       <c r="L25">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M25">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="N25">
-        <v>0.9953939315936389</v>
+        <v>0.7491680857708849</v>
       </c>
       <c r="O25">
-        <v>491.8313005742151</v>
+        <v>307.6886355861905</v>
       </c>
       <c r="P25">
-        <v>47.06239828343566</v>
+        <v>11.06076924272756</v>
       </c>
       <c r="Q25">
-        <v>2.346661428432407</v>
+        <v>3.325683802765135</v>
       </c>
       <c r="R25">
-        <v>334.3293875095175</v>
+        <v>259.8432452268012</v>
       </c>
       <c r="S25">
-        <v>10.45062127119269</v>
+        <v>27.81801417550551</v>
       </c>
       <c r="T25">
-        <v>18.87724231639552</v>
+        <v>44.61634014422704</v>
       </c>
       <c r="U25">
-        <v>2.937957086298769</v>
+        <v>3.798100162875365</v>
       </c>
       <c r="V25">
-        <v>369.9633432479307</v>
+        <v>202.8729082076256</v>
       </c>
       <c r="W25">
-        <v>54.78881275295407</v>
+        <v>275.2849482399258</v>
       </c>
       <c r="X25">
         <v>497.5090790547599</v>
       </c>
       <c r="Y25">
-        <v>52.74017676398057</v>
+        <v>200.8812127112969</v>
       </c>
       <c r="Z25">
-        <v>1.038843934826791</v>
+        <v>1.370386730169539</v>
       </c>
     </row>
     <row r="26" spans="1:26">
@@ -2559,67 +2559,67 @@
         <v>50</v>
       </c>
       <c r="F26">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G26">
-        <v>467.4256060985705</v>
+        <v>304.4188535900544</v>
       </c>
       <c r="H26">
-        <v>23.35750874034008</v>
+        <v>6.83730267901715</v>
       </c>
       <c r="I26">
-        <v>444.0680973582304</v>
+        <v>297.5815509110373</v>
       </c>
       <c r="J26">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="K26">
-        <v>446.7929775144167</v>
+        <v>297.5815509110373</v>
       </c>
       <c r="L26">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M26">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="N26">
-        <v>0.9939012466772749</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="O26">
-        <v>471.7270254050334</v>
+        <v>304.4188535900544</v>
       </c>
       <c r="P26">
-        <v>24.93404789061673</v>
+        <v>6.83730267901715</v>
       </c>
       <c r="Q26">
-        <v>2.940166227662251</v>
+        <v>3.796011252274924</v>
       </c>
       <c r="R26">
-        <v>373.4827319875121</v>
+        <v>271.6270730062787</v>
       </c>
       <c r="S26">
-        <v>18.9189909105194</v>
+        <v>44.52323787336179</v>
       </c>
       <c r="T26">
-        <v>20.01179198067871</v>
+        <v>44.52323787336179</v>
       </c>
       <c r="U26">
-        <v>2.996321698842706</v>
+        <v>3.796011252274924</v>
       </c>
       <c r="V26">
-        <v>374.0814870886413</v>
+        <v>271.6270730062787</v>
       </c>
       <c r="W26">
-        <v>41.18434090361086</v>
+        <v>187.670887350804</v>
       </c>
       <c r="X26">
         <v>485.2524382618413</v>
       </c>
       <c r="Y26">
-        <v>38.45946074742454</v>
+        <v>187.670887350804</v>
       </c>
       <c r="Z26">
-        <v>1.070850711456447</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:26">
@@ -2639,67 +2639,67 @@
         <v>50</v>
       </c>
       <c r="F27">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G27">
-        <v>506.2968277955796</v>
+        <v>294.0171919928602</v>
       </c>
       <c r="H27">
-        <v>21.37586284103526</v>
+        <v>6.135253360608734</v>
       </c>
       <c r="I27">
-        <v>484.9209649545443</v>
+        <v>287.8819386322515</v>
       </c>
       <c r="J27">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="K27">
-        <v>496.735865126776</v>
+        <v>300.8587115104302</v>
       </c>
       <c r="L27">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M27">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="N27">
-        <v>0.9762149242652001</v>
+        <v>0.9568675515060535</v>
       </c>
       <c r="O27">
-        <v>522.9145631738611</v>
+        <v>314.9959075724033</v>
       </c>
       <c r="P27">
-        <v>26.17869804708512</v>
+        <v>14.13719606197313</v>
       </c>
       <c r="Q27">
-        <v>2.99447206316484</v>
+        <v>3.103750304407467</v>
       </c>
       <c r="R27">
-        <v>418.3444851747516</v>
+        <v>256.980384929613</v>
       </c>
       <c r="S27">
-        <v>19.97481166685007</v>
+        <v>22.28135665598453</v>
       </c>
       <c r="T27">
-        <v>23.6854451939896</v>
+        <v>47.92258358564153</v>
       </c>
       <c r="U27">
-        <v>3.164860732652076</v>
+        <v>3.869586866912319</v>
       </c>
       <c r="V27">
-        <v>417.2693360223952</v>
+        <v>264.1410428028603</v>
       </c>
       <c r="W27">
-        <v>52.04230671958288</v>
+        <v>249.0813330418757</v>
       </c>
       <c r="X27">
         <v>536.9632716741272</v>
       </c>
       <c r="Y27">
-        <v>40.22740654735117</v>
+        <v>236.104560163697</v>
       </c>
       <c r="Z27">
-        <v>1.293702756063197</v>
+        <v>1.054961974767373</v>
       </c>
     </row>
     <row r="28" spans="1:26">
@@ -2719,67 +2719,67 @@
         <v>50</v>
       </c>
       <c r="F28">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G28">
-        <v>481.4598092603006</v>
+        <v>260.5833789962463</v>
       </c>
       <c r="H28">
-        <v>18.70134978442202</v>
+        <v>3.029524242492707</v>
       </c>
       <c r="I28">
-        <v>462.7584594758786</v>
+        <v>257.5538547537536</v>
       </c>
       <c r="J28">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="K28">
-        <v>502.3487051380018</v>
+        <v>346.924982384792</v>
       </c>
       <c r="L28">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M28">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="N28">
-        <v>0.9211897129280998</v>
+        <v>0.7423906257292465</v>
       </c>
       <c r="O28">
-        <v>543.2709599532117</v>
+        <v>353.1497625831603</v>
       </c>
       <c r="P28">
-        <v>40.92225481520988</v>
+        <v>6.224780198368315</v>
       </c>
       <c r="Q28">
-        <v>2.585934158334515</v>
+        <v>4.038354091343117</v>
       </c>
       <c r="R28">
-        <v>396.5264485752814</v>
+        <v>321.7871158029997</v>
       </c>
       <c r="S28">
-        <v>13.27568489093348</v>
+        <v>56.73288876541063</v>
       </c>
       <c r="T28">
-        <v>25.74465558958479</v>
+        <v>86.01462082436977</v>
       </c>
       <c r="U28">
-        <v>3.248227055649243</v>
+        <v>4.454517291389211</v>
       </c>
       <c r="V28">
-        <v>402.0122291289588</v>
+        <v>244.058786630887</v>
       </c>
       <c r="W28">
-        <v>86.72992346825663</v>
+        <v>291.9345281903816</v>
       </c>
       <c r="X28">
         <v>549.4883829441352</v>
       </c>
       <c r="Y28">
-        <v>47.13967780613336</v>
+        <v>202.5634005593432</v>
       </c>
       <c r="Z28">
-        <v>1.839849729668118</v>
+        <v>1.441200766694555</v>
       </c>
     </row>
     <row r="29" spans="1:26">
@@ -2799,67 +2799,67 @@
         <v>50</v>
       </c>
       <c r="F29">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G29">
-        <v>439.0574962734767</v>
+        <v>278.4580197654479</v>
       </c>
       <c r="H29">
-        <v>14.05029502368629</v>
+        <v>3.455687689338108</v>
       </c>
       <c r="I29">
-        <v>425.0072012497905</v>
+        <v>275.0023320761098</v>
       </c>
       <c r="J29">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="K29">
-        <v>457.2725626248756</v>
+        <v>308.1340763707825</v>
       </c>
       <c r="L29">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M29">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="N29">
-        <v>0.9294395421630532</v>
+        <v>0.8924762081334854</v>
       </c>
       <c r="O29">
-        <v>485.9874091595764</v>
+        <v>326.6632836478669</v>
       </c>
       <c r="P29">
-        <v>28.71484653470094</v>
+        <v>18.52920727708432</v>
       </c>
       <c r="Q29">
-        <v>2.828768426613568</v>
+        <v>2.869581667894255</v>
       </c>
       <c r="R29">
-        <v>376.0449113724594</v>
+        <v>254.9630028478486</v>
       </c>
       <c r="S29">
-        <v>16.92460409190335</v>
+        <v>17.62964161191407</v>
       </c>
       <c r="T29">
-        <v>31.2489876926644</v>
+        <v>80.57962547500435</v>
       </c>
       <c r="U29">
-        <v>3.44198698182298</v>
+        <v>4.389245831886979</v>
       </c>
       <c r="V29">
-        <v>376.6462686874901</v>
+        <v>259.8344692893793</v>
       </c>
       <c r="W29">
-        <v>68.21916285787097</v>
+        <v>218.2240320315516</v>
       </c>
       <c r="X29">
         <v>493.2263641076614</v>
       </c>
       <c r="Y29">
-        <v>35.95380148278582</v>
+        <v>185.0922877368789</v>
       </c>
       <c r="Z29">
-        <v>1.89741167955587</v>
+        <v>1.179001214474002</v>
       </c>
     </row>
     <row r="30" spans="1:26">
@@ -2879,67 +2879,67 @@
         <v>50</v>
       </c>
       <c r="F30">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G30">
-        <v>482.0048627943208</v>
+        <v>297.5429064960634</v>
       </c>
       <c r="H30">
-        <v>16.72644630168077</v>
+        <v>5.877594931905081</v>
       </c>
       <c r="I30">
-        <v>465.27841649264</v>
+        <v>291.6653115641583</v>
       </c>
       <c r="J30">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="K30">
-        <v>481.2265718993983</v>
+        <v>309.7956350620723</v>
       </c>
       <c r="L30">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M30">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="N30">
-        <v>0.9668593624333524</v>
+        <v>0.9414765043597813</v>
       </c>
       <c r="O30">
-        <v>519.8803629024582</v>
+        <v>327.5859822343299</v>
       </c>
       <c r="P30">
-        <v>38.65379100305991</v>
+        <v>17.79034717225764</v>
       </c>
       <c r="Q30">
-        <v>2.598953858079409</v>
+        <v>2.913094545280688</v>
       </c>
       <c r="R30">
-        <v>380.7671526426005</v>
+        <v>257.9706717559189</v>
       </c>
       <c r="S30">
-        <v>13.44966041911137</v>
+        <v>18.41369249641004</v>
       </c>
       <c r="T30">
-        <v>28.81693182764627</v>
+        <v>50.62324129907707</v>
       </c>
       <c r="U30">
-        <v>3.360963125072282</v>
+        <v>3.924410785051946</v>
       </c>
       <c r="V30">
-        <v>409.0614472591893</v>
+        <v>268.5992146232233</v>
       </c>
       <c r="W30">
-        <v>64.47615429156309</v>
+        <v>238.0892592200448</v>
       </c>
       <c r="X30">
         <v>529.7545707842031</v>
       </c>
       <c r="Y30">
-        <v>48.52799888480484</v>
+        <v>219.9589357221308</v>
       </c>
       <c r="Z30">
-        <v>1.328638224803289</v>
+        <v>1.082425946635865</v>
       </c>
     </row>
     <row r="31" spans="1:26">
@@ -2959,67 +2959,67 @@
         <v>50</v>
       </c>
       <c r="F31">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G31">
-        <v>462.2346276625964</v>
+        <v>316.0662764079174</v>
       </c>
       <c r="H31">
-        <v>33.2028638098413</v>
+        <v>11.22116689463374</v>
       </c>
       <c r="I31">
-        <v>429.0317638527551</v>
+        <v>304.8451095132837</v>
       </c>
       <c r="J31">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="K31">
-        <v>438.9792783354123</v>
+        <v>306.7051275693361</v>
       </c>
       <c r="L31">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M31">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="N31">
-        <v>0.9773394440840631</v>
+        <v>0.9939354843174835</v>
       </c>
       <c r="O31">
-        <v>483.3668853175453</v>
+        <v>318.3380255521103</v>
       </c>
       <c r="P31">
-        <v>44.38760698213287</v>
+        <v>11.63289798277416</v>
       </c>
       <c r="Q31">
-        <v>2.387815653783227</v>
+        <v>3.309276674502406</v>
       </c>
       <c r="R31">
-        <v>332.9898555494979</v>
+        <v>268.2086496180755</v>
       </c>
       <c r="S31">
-        <v>10.88968111103878</v>
+        <v>27.36532427461334</v>
       </c>
       <c r="T31">
-        <v>13.92152888708324</v>
+        <v>28.16697045643878</v>
       </c>
       <c r="U31">
-        <v>2.633436482717166</v>
+        <v>3.338150031072552</v>
       </c>
       <c r="V31">
-        <v>341.5941309652296</v>
+        <v>267.3871708952918</v>
       </c>
       <c r="W31">
-        <v>55.34945128504233</v>
+        <v>179.5361056245138</v>
       </c>
       <c r="X31">
         <v>484.3812151377975</v>
       </c>
       <c r="Y31">
-        <v>45.40193680238514</v>
+        <v>177.6760875684614</v>
       </c>
       <c r="Z31">
-        <v>1.219098901572292</v>
+        <v>1.010468589676345</v>
       </c>
     </row>
   </sheetData>

--- a/results/ROI_greedy/dataset_09/results_excel_13-9-22_synthetic_constrained_1_.xlsx
+++ b/results/ROI_greedy/dataset_09/results_excel_13-9-22_synthetic_constrained_1_.xlsx
@@ -639,67 +639,67 @@
         <v>50</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G2">
-        <v>230.7939909959881</v>
+        <v>351.3090428198378</v>
       </c>
       <c r="H2">
-        <v>38.17691154802023</v>
+        <v>71.60633781001728</v>
       </c>
       <c r="I2">
-        <v>192.6170794479678</v>
+        <v>279.7027050098205</v>
       </c>
       <c r="J2">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K2">
-        <v>192.6170794479679</v>
+        <v>291.579491034669</v>
       </c>
       <c r="L2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M2">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N2">
-        <v>0.9999999999999999</v>
+        <v>0.9592674162963114</v>
       </c>
       <c r="O2">
-        <v>230.7939909959881</v>
+        <v>373.0037930060178</v>
       </c>
       <c r="P2">
-        <v>38.17691154802023</v>
+        <v>81.42430197134863</v>
       </c>
       <c r="Q2">
-        <v>1.799294575603394</v>
+        <v>1.521914810041176</v>
       </c>
       <c r="R2">
-        <v>123.9255695863245</v>
+        <v>167.6586399672088</v>
       </c>
       <c r="S2">
-        <v>6.045381400370417</v>
+        <v>4.580988525235002</v>
       </c>
       <c r="T2">
-        <v>6.045381400370417</v>
+        <v>4.906116603140844</v>
       </c>
       <c r="U2">
-        <v>1.799294575603394</v>
+        <v>1.590482713010204</v>
       </c>
       <c r="V2">
-        <v>123.9255695863245</v>
+        <v>165.814062581019</v>
       </c>
       <c r="W2">
-        <v>285.6025267078019</v>
+        <v>198.5169011459492</v>
       </c>
       <c r="X2">
         <v>478.2196061557697</v>
       </c>
       <c r="Y2">
-        <v>285.6025267078019</v>
+        <v>186.6401151211007</v>
       </c>
       <c r="Z2">
-        <v>1</v>
+        <v>1.063634690844154</v>
       </c>
     </row>
     <row r="3" spans="1:26">
@@ -719,67 +719,67 @@
         <v>50</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G3">
-        <v>231.6073570392517</v>
+        <v>374.5586024724726</v>
       </c>
       <c r="H3">
-        <v>16.0700598947826</v>
+        <v>43.37772991222222</v>
       </c>
       <c r="I3">
-        <v>215.5372971444691</v>
+        <v>331.1808725602504</v>
       </c>
       <c r="J3">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K3">
-        <v>257.5081828504664</v>
+        <v>371.1674382795522</v>
       </c>
       <c r="L3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M3">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N3">
-        <v>0.8370114485629002</v>
+        <v>0.892268120542446</v>
       </c>
       <c r="O3">
-        <v>283.2419598259677</v>
+        <v>426.4250195157807</v>
       </c>
       <c r="P3">
-        <v>25.7337769755013</v>
+        <v>55.2575812362284</v>
       </c>
       <c r="Q3">
-        <v>2.39849710587713</v>
+        <v>2.04343099936318</v>
       </c>
       <c r="R3">
-        <v>195.785793251439</v>
+        <v>258.2523838316139</v>
       </c>
       <c r="S3">
-        <v>11.00662215638286</v>
+        <v>7.717040991946361</v>
       </c>
       <c r="T3">
-        <v>14.41235182417999</v>
+        <v>8.634813376136034</v>
       </c>
       <c r="U3">
-        <v>2.66808560447936</v>
+        <v>2.155802098873604</v>
       </c>
       <c r="V3">
-        <v>172.6610016760785</v>
+        <v>237.6670713711094</v>
       </c>
       <c r="W3">
-        <v>262.8283095046842</v>
+        <v>147.1847340889028</v>
       </c>
       <c r="X3">
         <v>478.3656066491532</v>
       </c>
       <c r="Y3">
-        <v>220.8574237986868</v>
+        <v>107.198168369601</v>
       </c>
       <c r="Z3">
-        <v>1.190036110102661</v>
+        <v>1.373015381955361</v>
       </c>
     </row>
     <row r="4" spans="1:26">
@@ -799,67 +799,67 @@
         <v>50</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G4">
-        <v>229.7266120386285</v>
+        <v>413.7539449844457</v>
       </c>
       <c r="H4">
-        <v>11.52677690089232</v>
+        <v>29.75982757843403</v>
       </c>
       <c r="I4">
-        <v>218.1998351377362</v>
+        <v>383.9941174060117</v>
       </c>
       <c r="J4">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K4">
-        <v>259.6985395990607</v>
+        <v>419.8817802072746</v>
       </c>
       <c r="L4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M4">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N4">
-        <v>0.8402043210354865</v>
+        <v>0.9145291258326405</v>
       </c>
       <c r="O4">
-        <v>278.7605122904465</v>
+        <v>486.3572200209211</v>
       </c>
       <c r="P4">
-        <v>19.06197269138574</v>
+        <v>66.47543981364659</v>
       </c>
       <c r="Q4">
-        <v>2.682657642422174</v>
+        <v>1.990110821190765</v>
       </c>
       <c r="R4">
-        <v>208.561792878872</v>
+        <v>287.5882880907211</v>
       </c>
       <c r="S4">
-        <v>14.62390681193351</v>
+        <v>7.316344523396113</v>
       </c>
       <c r="T4">
-        <v>19.92982201475981</v>
+        <v>13.90310289580709</v>
       </c>
       <c r="U4">
-        <v>2.992217203666001</v>
+        <v>2.632112045138735</v>
       </c>
       <c r="V4">
-        <v>183.7092149920664</v>
+        <v>305.6629167755636</v>
       </c>
       <c r="W4">
-        <v>334.2114561688811</v>
+        <v>168.4171739006056</v>
       </c>
       <c r="X4">
         <v>552.4112913066173</v>
       </c>
       <c r="Y4">
-        <v>292.7127517075565</v>
+        <v>132.5295110993427</v>
       </c>
       <c r="Z4">
-        <v>1.141772793358812</v>
+        <v>1.270789973520402</v>
       </c>
     </row>
     <row r="5" spans="1:26">
@@ -879,67 +879,67 @@
         <v>50</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G5">
-        <v>182.9695767745788</v>
+        <v>345.7642773006972</v>
       </c>
       <c r="H5">
-        <v>18.02705575261244</v>
+        <v>46.17183434547568</v>
       </c>
       <c r="I5">
-        <v>164.9425210219664</v>
+        <v>299.5924429552215</v>
       </c>
       <c r="J5">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K5">
-        <v>266.351210536168</v>
+        <v>372.9450965464976</v>
       </c>
       <c r="L5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M5">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N5">
-        <v>0.6192670222520681</v>
+        <v>0.8033151413692587</v>
       </c>
       <c r="O5">
-        <v>299.4720256054616</v>
+        <v>447.6233396398609</v>
       </c>
       <c r="P5">
-        <v>33.12081506929357</v>
+        <v>74.67824309336345</v>
       </c>
       <c r="Q5">
-        <v>2.201859070744191</v>
+        <v>1.790763326447614</v>
       </c>
       <c r="R5">
-        <v>193.423843445403</v>
+        <v>239.2140375313624</v>
       </c>
       <c r="S5">
-        <v>9.041807243539221</v>
+        <v>5.994026119230443</v>
       </c>
       <c r="T5">
-        <v>10.14972046935969</v>
+        <v>7.488640687600887</v>
       </c>
       <c r="U5">
-        <v>2.317446165144002</v>
+        <v>2.013387297427591</v>
       </c>
       <c r="V5">
-        <v>123.1657897992376</v>
+        <v>206.6306581851098</v>
       </c>
       <c r="W5">
-        <v>358.6311291501989</v>
+        <v>223.9812072169438</v>
       </c>
       <c r="X5">
         <v>523.5736501721653</v>
       </c>
       <c r="Y5">
-        <v>257.2224396359974</v>
+        <v>150.6285536256678</v>
       </c>
       <c r="Z5">
-        <v>1.39424511196499</v>
+        <v>1.486977082536205</v>
       </c>
     </row>
     <row r="6" spans="1:26">
@@ -959,67 +959,67 @@
         <v>50</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G6">
-        <v>273.0630472590049</v>
+        <v>454.4888636572895</v>
       </c>
       <c r="H6">
-        <v>27.16744389128417</v>
+        <v>56.19603851939264</v>
       </c>
       <c r="I6">
-        <v>245.8956033677208</v>
+        <v>398.2928251378968</v>
       </c>
       <c r="J6">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K6">
-        <v>245.8956033677208</v>
+        <v>399.1337615940126</v>
       </c>
       <c r="L6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M6">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N6">
-        <v>1</v>
+        <v>0.9978930961571445</v>
       </c>
       <c r="O6">
-        <v>273.0630472590049</v>
+        <v>460.2216197505107</v>
       </c>
       <c r="P6">
-        <v>27.16744389128417</v>
+        <v>61.08785815649793</v>
       </c>
       <c r="Q6">
-        <v>2.307683370197973</v>
+        <v>2.019395029942719</v>
       </c>
       <c r="R6">
-        <v>183.2017448890178</v>
+        <v>275.773244442935</v>
       </c>
       <c r="S6">
-        <v>10.05111295533433</v>
+        <v>7.533765851987999</v>
       </c>
       <c r="T6">
-        <v>10.05111295533433</v>
+        <v>8.087560540418703</v>
       </c>
       <c r="U6">
-        <v>2.307683370197973</v>
+        <v>2.090327145476739</v>
       </c>
       <c r="V6">
-        <v>183.2017448890178</v>
+        <v>280.824720352554</v>
       </c>
       <c r="W6">
-        <v>266.8807507104615</v>
+        <v>114.4835289402855</v>
       </c>
       <c r="X6">
         <v>512.7763540781823</v>
       </c>
       <c r="Y6">
-        <v>266.8807507104615</v>
+        <v>113.6425924841697</v>
       </c>
       <c r="Z6">
-        <v>1</v>
+        <v>1.007399835200283</v>
       </c>
     </row>
     <row r="7" spans="1:26">
@@ -1039,67 +1039,67 @@
         <v>50</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G7">
-        <v>255.154843708259</v>
+        <v>418.9887452851971</v>
       </c>
       <c r="H7">
-        <v>17.08445688044328</v>
+        <v>41.26768534739972</v>
       </c>
       <c r="I7">
-        <v>238.0703868278158</v>
+        <v>377.7210599377973</v>
       </c>
       <c r="J7">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K7">
-        <v>258.8919524626767</v>
+        <v>390.6974891628471</v>
       </c>
       <c r="L7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M7">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N7">
-        <v>0.9195743033462475</v>
+        <v>0.966786504687157</v>
       </c>
       <c r="O7">
-        <v>301.5673605856303</v>
+        <v>450.0749315912949</v>
       </c>
       <c r="P7">
-        <v>42.67540812295366</v>
+        <v>59.37744242844791</v>
       </c>
       <c r="Q7">
-        <v>1.955370577258947</v>
+        <v>2.025499686403887</v>
       </c>
       <c r="R7">
-        <v>175.4457150465356</v>
+        <v>270.4284981445609</v>
       </c>
       <c r="S7">
-        <v>7.066537236545547</v>
+        <v>7.579897570254098</v>
       </c>
       <c r="T7">
-        <v>14.93491104188023</v>
+        <v>10.1529499839418</v>
       </c>
       <c r="U7">
-        <v>2.703701495298157</v>
+        <v>2.317764302072518</v>
       </c>
       <c r="V7">
-        <v>191.8791152138044</v>
+        <v>282.0722920104332</v>
       </c>
       <c r="W7">
-        <v>282.9301358022873</v>
+        <v>143.2794626923057</v>
       </c>
       <c r="X7">
         <v>521.0005226301031</v>
       </c>
       <c r="Y7">
-        <v>262.1085701674264</v>
+        <v>130.303033467256</v>
       </c>
       <c r="Z7">
-        <v>1.079438705958988</v>
+        <v>1.099586547448342</v>
       </c>
     </row>
     <row r="8" spans="1:26">
@@ -1119,67 +1119,67 @@
         <v>50</v>
       </c>
       <c r="F8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G8">
-        <v>195.9671635796194</v>
+        <v>362.9639219898537</v>
       </c>
       <c r="H8">
-        <v>12.6350156231123</v>
+        <v>35.2914056244452</v>
       </c>
       <c r="I8">
-        <v>183.3321479565071</v>
+        <v>327.6725163654085</v>
       </c>
       <c r="J8">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K8">
-        <v>242.91942705006</v>
+        <v>381.918930241629</v>
       </c>
       <c r="L8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M8">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N8">
-        <v>0.7547035252916461</v>
+        <v>0.8579635373352655</v>
       </c>
       <c r="O8">
-        <v>280.3644216600027</v>
+        <v>449.5196933051233</v>
       </c>
       <c r="P8">
-        <v>37.44499460994281</v>
+        <v>67.6007630634944</v>
       </c>
       <c r="Q8">
-        <v>2.013217217117814</v>
+        <v>1.894560393625058</v>
       </c>
       <c r="R8">
-        <v>167.5345192064393</v>
+        <v>253.8452019627007</v>
       </c>
       <c r="S8">
-        <v>7.48736712557991</v>
+        <v>6.649624544665412</v>
       </c>
       <c r="T8">
-        <v>15.50984735002236</v>
+        <v>10.28476807788128</v>
       </c>
       <c r="U8">
-        <v>2.741475135104061</v>
+        <v>2.33066397330097</v>
       </c>
       <c r="V8">
-        <v>148.6935667940934</v>
+        <v>245.4201087093629</v>
       </c>
       <c r="W8">
-        <v>372.0085179149282</v>
+        <v>227.6681495060269</v>
       </c>
       <c r="X8">
         <v>555.3406658714354</v>
       </c>
       <c r="Y8">
-        <v>312.4212388213754</v>
+        <v>173.4217356298064</v>
       </c>
       <c r="Z8">
-        <v>1.190727363217523</v>
+        <v>1.312800547631568</v>
       </c>
     </row>
     <row r="9" spans="1:26">
@@ -1199,67 +1199,67 @@
         <v>50</v>
       </c>
       <c r="F9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G9">
-        <v>197.4220561834111</v>
+        <v>411.5903949355461</v>
       </c>
       <c r="H9">
-        <v>12.50071234554235</v>
+        <v>50.7994746458287</v>
       </c>
       <c r="I9">
-        <v>184.9213438378688</v>
+        <v>360.7909202897174</v>
       </c>
       <c r="J9">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K9">
-        <v>220.8719254265128</v>
+        <v>379.2057562517795</v>
       </c>
       <c r="L9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M9">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N9">
-        <v>0.8372333581136583</v>
+        <v>0.9514384060408745</v>
       </c>
       <c r="O9">
-        <v>242.9655287293755</v>
+        <v>441.573624509462</v>
       </c>
       <c r="P9">
-        <v>22.09360330286279</v>
+        <v>62.36786825768266</v>
       </c>
       <c r="Q9">
-        <v>2.39763145287959</v>
+        <v>1.957294555087371</v>
       </c>
       <c r="R9">
-        <v>167.8996072401245</v>
+        <v>257.1334672986106</v>
       </c>
       <c r="S9">
-        <v>10.99709836366498</v>
+        <v>7.080146184971902</v>
       </c>
       <c r="T9">
-        <v>15.79286449654289</v>
+        <v>8.102256919094794</v>
       </c>
       <c r="U9">
-        <v>2.759558223881685</v>
+        <v>2.092142654854722</v>
       </c>
       <c r="V9">
-        <v>150.4249002803481</v>
+        <v>254.5111725389683</v>
       </c>
       <c r="W9">
-        <v>352.7568127314166</v>
+        <v>176.887236279568</v>
       </c>
       <c r="X9">
         <v>537.6781565692854</v>
       </c>
       <c r="Y9">
-        <v>316.8062311427726</v>
+        <v>158.472400317506</v>
       </c>
       <c r="Z9">
-        <v>1.113478139173476</v>
+        <v>1.116202164699766</v>
       </c>
     </row>
     <row r="10" spans="1:26">
@@ -1279,67 +1279,67 @@
         <v>50</v>
       </c>
       <c r="F10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G10">
-        <v>181.1157249715569</v>
+        <v>332.7120169511693</v>
       </c>
       <c r="H10">
-        <v>20.32064452795764</v>
+        <v>54.02061254291114</v>
       </c>
       <c r="I10">
-        <v>160.7950804435992</v>
+        <v>278.6914044082582</v>
       </c>
       <c r="J10">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K10">
-        <v>211.1114514106568</v>
+        <v>298.961345530412</v>
       </c>
       <c r="L10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M10">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N10">
-        <v>0.7616596796107403</v>
+        <v>0.9321987894916942</v>
       </c>
       <c r="O10">
-        <v>248.5879288004344</v>
+        <v>367.7029747247605</v>
       </c>
       <c r="P10">
-        <v>37.47647738977754</v>
+        <v>68.74162919434829</v>
       </c>
       <c r="Q10">
-        <v>1.892083154627279</v>
+        <v>1.676920506400319</v>
       </c>
       <c r="R10">
-        <v>140.2028398466886</v>
+        <v>183.6870978910426</v>
       </c>
       <c r="S10">
-        <v>6.633172222004026</v>
+        <v>5.349058191291628</v>
       </c>
       <c r="T10">
-        <v>8.912892734399907</v>
+        <v>6.158982678822466</v>
       </c>
       <c r="U10">
-        <v>2.187498850340373</v>
+        <v>1.817911614364934</v>
       </c>
       <c r="V10">
-        <v>116.3436939005165</v>
+        <v>180.4867054513921</v>
       </c>
       <c r="W10">
-        <v>286.8022033435773</v>
+        <v>168.9058793789183</v>
       </c>
       <c r="X10">
         <v>447.5972837871765</v>
       </c>
       <c r="Y10">
-        <v>236.4858323765197</v>
+        <v>148.6359382567645</v>
       </c>
       <c r="Z10">
-        <v>1.212766957163618</v>
+        <v>1.136373082848497</v>
       </c>
     </row>
     <row r="11" spans="1:26">
@@ -1359,67 +1359,67 @@
         <v>50</v>
       </c>
       <c r="F11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G11">
-        <v>200.2470428142124</v>
+        <v>370.0762329179962</v>
       </c>
       <c r="H11">
-        <v>13.11756609448071</v>
+        <v>37.37099649225736</v>
       </c>
       <c r="I11">
-        <v>187.1294767197317</v>
+        <v>332.7052364257389</v>
       </c>
       <c r="J11">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K11">
-        <v>228.0344728968007</v>
+        <v>400.182310288231</v>
       </c>
       <c r="L11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M11">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N11">
-        <v>0.8206192438474819</v>
+        <v>0.8313841663468536</v>
       </c>
       <c r="O11">
-        <v>253.3923283527472</v>
+        <v>468.1085492187538</v>
       </c>
       <c r="P11">
-        <v>25.35785545594647</v>
+        <v>67.92623893052283</v>
       </c>
       <c r="Q11">
-        <v>2.301850430624389</v>
+        <v>1.930277816968314</v>
       </c>
       <c r="R11">
-        <v>169.6644823958193</v>
+        <v>269.0657980905532</v>
       </c>
       <c r="S11">
-        <v>9.99265607428668</v>
+        <v>6.891424530328412</v>
       </c>
       <c r="T11">
-        <v>15.26556385322635</v>
+        <v>9.902765985773748</v>
       </c>
       <c r="U11">
-        <v>2.725599563154604</v>
+        <v>2.292814110620126</v>
       </c>
       <c r="V11">
-        <v>151.3762443029634</v>
+        <v>247.0204883403559</v>
       </c>
       <c r="W11">
-        <v>375.0712876408633</v>
+        <v>229.4955279348561</v>
       </c>
       <c r="X11">
         <v>562.2007643605949</v>
       </c>
       <c r="Y11">
-        <v>334.1662914637943</v>
+        <v>162.0184540723639</v>
       </c>
       <c r="Z11">
-        <v>1.122409103557056</v>
+        <v>1.416477704646868</v>
       </c>
     </row>
     <row r="12" spans="1:26">
@@ -1439,67 +1439,67 @@
         <v>50</v>
       </c>
       <c r="F12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G12">
-        <v>196.5831636717779</v>
+        <v>302.4882229125353</v>
       </c>
       <c r="H12">
-        <v>8.402835684153885</v>
+        <v>22.84091079687466</v>
       </c>
       <c r="I12">
-        <v>188.180327987624</v>
+        <v>279.6473121156606</v>
       </c>
       <c r="J12">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K12">
-        <v>308.4738822357438</v>
+        <v>401.4279818900554</v>
       </c>
       <c r="L12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M12">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N12">
-        <v>0.6100365017087953</v>
+        <v>0.6966313379525482</v>
       </c>
       <c r="O12">
-        <v>415.9982160556565</v>
+        <v>457.5842980528222</v>
       </c>
       <c r="P12">
-        <v>107.5243338199128</v>
+        <v>56.1563161627668</v>
       </c>
       <c r="Q12">
-        <v>1.352963788856946</v>
+        <v>2.09782196360735</v>
       </c>
       <c r="R12">
-        <v>162.9973521564354</v>
+        <v>283.6220284485248</v>
       </c>
       <c r="S12">
-        <v>3.868875084149708</v>
+        <v>8.148403052766723</v>
       </c>
       <c r="T12">
-        <v>23.39485990931556</v>
+        <v>13.2432644916211</v>
       </c>
       <c r="U12">
-        <v>3.152516336239364</v>
+        <v>2.583489082928509</v>
       </c>
       <c r="V12">
-        <v>161.6902512225938</v>
+        <v>220.638068427791</v>
       </c>
       <c r="W12">
-        <v>323.1108164178291</v>
+        <v>231.6438322897925</v>
       </c>
       <c r="X12">
         <v>511.2911444054531</v>
       </c>
       <c r="Y12">
-        <v>202.8172621697094</v>
+        <v>109.8631625153977</v>
       </c>
       <c r="Z12">
-        <v>1.593112997193813</v>
+        <v>2.108475916641548</v>
       </c>
     </row>
     <row r="13" spans="1:26">
@@ -1519,67 +1519,67 @@
         <v>50</v>
       </c>
       <c r="F13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G13">
-        <v>214.0984523635436</v>
+        <v>401.5678287285984</v>
       </c>
       <c r="H13">
-        <v>14.81200182349316</v>
+        <v>39.99080453336735</v>
       </c>
       <c r="I13">
-        <v>199.2864505400504</v>
+        <v>361.577024195231</v>
       </c>
       <c r="J13">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K13">
-        <v>277.2227544246128</v>
+        <v>408.5497481898888</v>
       </c>
       <c r="L13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M13">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N13">
-        <v>0.718867579804831</v>
+        <v>0.8850256934369095</v>
       </c>
       <c r="O13">
-        <v>337.622191840096</v>
+        <v>475.4995497494618</v>
       </c>
       <c r="P13">
-        <v>60.39943741548325</v>
+        <v>66.949801559573</v>
       </c>
       <c r="Q13">
-        <v>1.720947704100717</v>
+        <v>1.960422826962439</v>
       </c>
       <c r="R13">
-        <v>173.278481275462</v>
+        <v>277.2998289518964</v>
       </c>
       <c r="S13">
-        <v>5.58982345344739</v>
+        <v>7.102329486762627</v>
       </c>
       <c r="T13">
-        <v>14.4543900895262</v>
+        <v>10.04150412611829</v>
       </c>
       <c r="U13">
-        <v>2.670998180840751</v>
+        <v>2.306726916401078</v>
       </c>
       <c r="V13">
-        <v>159.7236206148903</v>
+        <v>269.3291589695783</v>
       </c>
       <c r="W13">
-        <v>346.8825451725739</v>
+        <v>184.5919715173933</v>
       </c>
       <c r="X13">
         <v>546.1689957126243</v>
       </c>
       <c r="Y13">
-        <v>268.9462412880115</v>
+        <v>137.6192475227356</v>
       </c>
       <c r="Z13">
-        <v>1.289783949057319</v>
+        <v>1.341323796200074</v>
       </c>
     </row>
     <row r="14" spans="1:26">
@@ -1599,67 +1599,67 @@
         <v>50</v>
       </c>
       <c r="F14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G14">
-        <v>232.8365309641556</v>
+        <v>445.5201914338434</v>
       </c>
       <c r="H14">
-        <v>25.17590163995925</v>
+        <v>64.62314563854713</v>
       </c>
       <c r="I14">
-        <v>207.6606293241963</v>
+        <v>380.8970457952962</v>
       </c>
       <c r="J14">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K14">
-        <v>306.8593045953947</v>
+        <v>396.6908421991858</v>
       </c>
       <c r="L14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M14">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N14">
-        <v>0.6767291270440845</v>
+        <v>0.9601861330694414</v>
       </c>
       <c r="O14">
-        <v>420.6194398029015</v>
+        <v>482.9013842246885</v>
       </c>
       <c r="P14">
-        <v>113.7601352075067</v>
+        <v>86.21054202550259</v>
       </c>
       <c r="Q14">
-        <v>1.307636326830914</v>
+        <v>1.72301999188693</v>
       </c>
       <c r="R14">
-        <v>158.1024192528625</v>
+        <v>248.1483547778366</v>
       </c>
       <c r="S14">
-        <v>3.697423873799562</v>
+        <v>5.601419187015873</v>
       </c>
       <c r="T14">
-        <v>9.248388967114366</v>
+        <v>6.894127282595395</v>
       </c>
       <c r="U14">
-        <v>2.224449370638358</v>
+        <v>1.930669930731809</v>
       </c>
       <c r="V14">
-        <v>151.6581107659358</v>
+        <v>256.1310816816508</v>
       </c>
       <c r="W14">
-        <v>302.0691074297573</v>
+        <v>128.8326909586575</v>
       </c>
       <c r="X14">
         <v>509.7297367539537</v>
       </c>
       <c r="Y14">
-        <v>202.8704321585589</v>
+        <v>113.0388945547679</v>
       </c>
       <c r="Z14">
-        <v>1.488975521054083</v>
+        <v>1.139720018194599</v>
       </c>
     </row>
     <row r="15" spans="1:26">
@@ -1679,67 +1679,67 @@
         <v>50</v>
       </c>
       <c r="F15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G15">
-        <v>302.9937045265925</v>
+        <v>488.5431333538181</v>
       </c>
       <c r="H15">
-        <v>24.57976739866773</v>
+        <v>61.69284711441689</v>
       </c>
       <c r="I15">
-        <v>278.4139371279248</v>
+        <v>426.8502862394012</v>
       </c>
       <c r="J15">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K15">
-        <v>390.6900942415537</v>
+        <v>434.5139560675634</v>
       </c>
       <c r="L15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M15">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="N15">
-        <v>0.7126209269994662</v>
+        <v>0.9823626612651987</v>
       </c>
       <c r="O15">
-        <v>472.1998571462665</v>
+        <v>575.9436920518523</v>
       </c>
       <c r="P15">
-        <v>81.50976290471294</v>
+        <v>141.4297359842888</v>
       </c>
       <c r="Q15">
-        <v>1.756679518808926</v>
+        <v>1.404206870791189</v>
       </c>
       <c r="R15">
-        <v>247.5035631638728</v>
+        <v>235.9173490642412</v>
       </c>
       <c r="S15">
-        <v>5.793169312715098</v>
+        <v>4.072295603491989</v>
       </c>
       <c r="T15">
-        <v>12.3269557279462</v>
+        <v>7.918959104736331</v>
       </c>
       <c r="U15">
-        <v>2.511788387092681</v>
+        <v>2.069259771019504</v>
       </c>
       <c r="V15">
-        <v>216.6747628185119</v>
+        <v>299.1917595458817</v>
       </c>
       <c r="W15">
-        <v>307.9057393227479</v>
+        <v>159.4693902112714</v>
       </c>
       <c r="X15">
         <v>586.3196764506727</v>
       </c>
       <c r="Y15">
-        <v>195.629582209119</v>
+        <v>151.8057203831092</v>
       </c>
       <c r="Z15">
-        <v>1.57392218418997</v>
+        <v>1.050483406085235</v>
       </c>
     </row>
     <row r="16" spans="1:26">
@@ -1759,67 +1759,67 @@
         <v>50</v>
       </c>
       <c r="F16">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G16">
-        <v>244.4870981171838</v>
+        <v>324.5815760988175</v>
       </c>
       <c r="H16">
-        <v>26.82904053071058</v>
+        <v>43.67554452700191</v>
       </c>
       <c r="I16">
-        <v>217.6580575864732</v>
+        <v>280.9060315718156</v>
       </c>
       <c r="J16">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K16">
-        <v>300.4613477025893</v>
+        <v>394.0685958941361</v>
       </c>
       <c r="L16">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M16">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N16">
-        <v>0.7244128379598473</v>
+        <v>0.7128353654633243</v>
       </c>
       <c r="O16">
-        <v>348.3457122435915</v>
+        <v>515.1078073503331</v>
       </c>
       <c r="P16">
-        <v>47.88436454100227</v>
+        <v>121.0392114561971</v>
       </c>
       <c r="Q16">
-        <v>1.984406380278322</v>
+        <v>1.448261658695556</v>
       </c>
       <c r="R16">
-        <v>205.4393091918513</v>
+        <v>218.772146743382</v>
       </c>
       <c r="S16">
-        <v>7.274727681627918</v>
+        <v>4.255710204595523</v>
       </c>
       <c r="T16">
-        <v>9.112778291021069</v>
+        <v>7.431654936738078</v>
       </c>
       <c r="U16">
-        <v>2.209677636349506</v>
+        <v>2.005748571038891</v>
       </c>
       <c r="V16">
-        <v>158.3745267210475</v>
+        <v>193.303870547436</v>
       </c>
       <c r="W16">
-        <v>307.3782130367036</v>
+        <v>244.1302390513613</v>
       </c>
       <c r="X16">
         <v>525.0362706231768</v>
       </c>
       <c r="Y16">
-        <v>224.5749229205875</v>
+        <v>130.9676747290407</v>
       </c>
       <c r="Z16">
-        <v>1.368711203545181</v>
+        <v>1.864049579840543</v>
       </c>
     </row>
     <row r="17" spans="1:26">
@@ -1839,67 +1839,67 @@
         <v>50</v>
       </c>
       <c r="F17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G17">
-        <v>260.4473177789901</v>
+        <v>389.4199207512187</v>
       </c>
       <c r="H17">
-        <v>14.08409782693418</v>
+        <v>32.42420681716268</v>
       </c>
       <c r="I17">
-        <v>246.3632199520559</v>
+        <v>356.9957139340561</v>
       </c>
       <c r="J17">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K17">
-        <v>335.3386756035138</v>
+        <v>428.2727758151916</v>
       </c>
       <c r="L17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M17">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N17">
-        <v>0.7346698662439474</v>
+        <v>0.8335708784069594</v>
       </c>
       <c r="O17">
-        <v>374.8852493269641</v>
+        <v>498.9948395090227</v>
       </c>
       <c r="P17">
-        <v>39.54657372345018</v>
+        <v>70.72206369383105</v>
       </c>
       <c r="Q17">
-        <v>2.249140918404937</v>
+        <v>1.953838154938083</v>
       </c>
       <c r="R17">
-        <v>246.3928584593847</v>
+        <v>290.0933093742232</v>
       </c>
       <c r="S17">
-        <v>9.479588597195363</v>
+        <v>7.055716610155271</v>
       </c>
       <c r="T17">
-        <v>18.49229684282051</v>
+        <v>12.01016027769389</v>
       </c>
       <c r="U17">
-        <v>2.917354258496626</v>
+        <v>2.485752981356207</v>
       </c>
       <c r="V17">
-        <v>205.2749171795664</v>
+        <v>276.3971451701837</v>
       </c>
       <c r="W17">
-        <v>289.9312863382596</v>
+        <v>179.2987923562595</v>
       </c>
       <c r="X17">
         <v>536.2945062903156</v>
       </c>
       <c r="Y17">
-        <v>200.9558306868017</v>
+        <v>108.0217304751239</v>
       </c>
       <c r="Z17">
-        <v>1.442761254288411</v>
+        <v>1.659840030034973</v>
       </c>
     </row>
     <row r="18" spans="1:26">
@@ -1919,67 +1919,67 @@
         <v>50</v>
       </c>
       <c r="F18">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G18">
-        <v>235.8821728681015</v>
+        <v>458.304891630261</v>
       </c>
       <c r="H18">
-        <v>20.51550272259684</v>
+        <v>47.18198548257575</v>
       </c>
       <c r="I18">
-        <v>215.3666701455047</v>
+        <v>411.1229061476853</v>
       </c>
       <c r="J18">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K18">
-        <v>289.9154045641641</v>
+        <v>411.1229061476853</v>
       </c>
       <c r="L18">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M18">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N18">
-        <v>0.7428603887719242</v>
+        <v>1</v>
       </c>
       <c r="O18">
-        <v>421.1499662278823</v>
+        <v>458.3048916302611</v>
       </c>
       <c r="P18">
-        <v>131.2345616637182</v>
+        <v>47.18198548257575</v>
       </c>
       <c r="Q18">
-        <v>1.166002715437103</v>
+        <v>2.273522508647503</v>
       </c>
       <c r="R18">
-        <v>136.8955493050707</v>
+        <v>303.8536001503696</v>
       </c>
       <c r="S18">
-        <v>3.209139123785527</v>
+        <v>9.713556709043379</v>
       </c>
       <c r="T18">
-        <v>11.49775250734112</v>
+        <v>9.713556709043379</v>
       </c>
       <c r="U18">
-        <v>2.442151582125213</v>
+        <v>2.273522508647503</v>
       </c>
       <c r="V18">
-        <v>165.2647027134207</v>
+        <v>303.8536001503696</v>
       </c>
       <c r="W18">
-        <v>340.7943149954691</v>
+        <v>145.0380789932884</v>
       </c>
       <c r="X18">
         <v>556.1609851409737</v>
       </c>
       <c r="Y18">
-        <v>266.2455805768096</v>
+        <v>145.0380789932884</v>
       </c>
       <c r="Z18">
-        <v>1.279999894297411</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:26">
@@ -1999,67 +1999,67 @@
         <v>50</v>
       </c>
       <c r="F19">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G19">
-        <v>174.1550062522406</v>
+        <v>413.1354729153523</v>
       </c>
       <c r="H19">
-        <v>17.37702703892265</v>
+        <v>51.60745235465471</v>
       </c>
       <c r="I19">
-        <v>156.7779792133179</v>
+        <v>361.5280205606976</v>
       </c>
       <c r="J19">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K19">
-        <v>287.34191685835</v>
+        <v>404.2351852412138</v>
       </c>
       <c r="L19">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M19">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N19">
-        <v>0.5456147189642514</v>
+        <v>0.8943506991974681</v>
       </c>
       <c r="O19">
-        <v>362.8039938797115</v>
+        <v>468.0820875544491</v>
       </c>
       <c r="P19">
-        <v>75.46207702136142</v>
+        <v>63.84690231323533</v>
       </c>
       <c r="Q19">
-        <v>1.570232487712373</v>
+        <v>1.992155615055324</v>
       </c>
       <c r="R19">
-        <v>168.8489119291551</v>
+        <v>277.0422202940132</v>
       </c>
       <c r="S19">
-        <v>4.807765810328952</v>
+        <v>7.331320245703081</v>
       </c>
       <c r="T19">
-        <v>10.02214048825224</v>
+        <v>8.005345237277339</v>
       </c>
       <c r="U19">
-        <v>2.304796694424937</v>
+        <v>2.080109473223557</v>
       </c>
       <c r="V19">
-        <v>116.7274647350763</v>
+        <v>254.178870028847</v>
       </c>
       <c r="W19">
-        <v>378.7064685420922</v>
+        <v>173.9564271947126</v>
       </c>
       <c r="X19">
         <v>535.4844477554102</v>
       </c>
       <c r="Y19">
-        <v>248.1425308970602</v>
+        <v>131.2492625141964</v>
       </c>
       <c r="Z19">
-        <v>1.526165092187262</v>
+        <v>1.325389749720665</v>
       </c>
     </row>
     <row r="20" spans="1:26">
@@ -2079,67 +2079,67 @@
         <v>50</v>
       </c>
       <c r="F20">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G20">
-        <v>293.7637393843011</v>
+        <v>486.0434691031792</v>
       </c>
       <c r="H20">
-        <v>29.02136555685551</v>
+        <v>63.53664112320372</v>
       </c>
       <c r="I20">
-        <v>264.7423738274455</v>
+        <v>422.5068279799755</v>
       </c>
       <c r="J20">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K20">
-        <v>369.1263077810806</v>
+        <v>438.1831258000982</v>
       </c>
       <c r="L20">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M20">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N20">
-        <v>0.7172135072649916</v>
+        <v>0.9642243233545367</v>
       </c>
       <c r="O20">
-        <v>432.546919022818</v>
+        <v>530.12823291384</v>
       </c>
       <c r="P20">
-        <v>63.4206112417376</v>
+        <v>91.94510711374195</v>
       </c>
       <c r="Q20">
-        <v>1.919901896717551</v>
+        <v>1.751927189006897</v>
       </c>
       <c r="R20">
-        <v>247.364955967082</v>
+        <v>277.101992751382</v>
       </c>
       <c r="S20">
-        <v>6.820289343697707</v>
+        <v>5.765703576352764</v>
       </c>
       <c r="T20">
-        <v>10.1223265600232</v>
+        <v>7.649813721828538</v>
       </c>
       <c r="U20">
-        <v>2.314743534672494</v>
+        <v>2.034681297454203</v>
       </c>
       <c r="V20">
-        <v>197.5653555373472</v>
+        <v>293.2300125835333</v>
       </c>
       <c r="W20">
-        <v>295.8771623486101</v>
+        <v>138.1127081960801</v>
       </c>
       <c r="X20">
         <v>560.6195361760556</v>
       </c>
       <c r="Y20">
-        <v>191.493228394975</v>
+        <v>122.4364103759574</v>
       </c>
       <c r="Z20">
-        <v>1.545105092376072</v>
+        <v>1.128036241604818</v>
       </c>
     </row>
     <row r="21" spans="1:26">
@@ -2159,67 +2159,67 @@
         <v>50</v>
       </c>
       <c r="F21">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G21">
-        <v>211.8563988309308</v>
+        <v>383.1857484412477</v>
       </c>
       <c r="H21">
-        <v>33.23409490026684</v>
+        <v>76.34761948002466</v>
       </c>
       <c r="I21">
-        <v>178.6223039306639</v>
+        <v>306.838128961223</v>
       </c>
       <c r="J21">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K21">
-        <v>265.5299125510287</v>
+        <v>354.4506322126106</v>
       </c>
       <c r="L21">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M21">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N21">
-        <v>0.6727012494170006</v>
+        <v>0.865672398567403</v>
       </c>
       <c r="O21">
-        <v>322.1264147627818</v>
+        <v>466.7753544182077</v>
       </c>
       <c r="P21">
-        <v>56.59650221175315</v>
+        <v>112.3247222055971</v>
       </c>
       <c r="Q21">
-        <v>1.738996876010544</v>
+        <v>1.424454120319943</v>
       </c>
       <c r="R21">
-        <v>167.1087720116661</v>
+        <v>194.4492188530547</v>
       </c>
       <c r="S21">
-        <v>5.69163114634825</v>
+        <v>4.155588772023228</v>
       </c>
       <c r="T21">
-        <v>6.374670333785132</v>
+        <v>5.018961312100937</v>
       </c>
       <c r="U21">
-        <v>1.85233237735993</v>
+        <v>1.613223002354771</v>
       </c>
       <c r="V21">
-        <v>117.0617139146471</v>
+        <v>183.672393041018</v>
       </c>
       <c r="W21">
-        <v>298.3511682304072</v>
+        <v>170.1353431998481</v>
       </c>
       <c r="X21">
         <v>476.9734721610711</v>
       </c>
       <c r="Y21">
-        <v>211.4435596100424</v>
+        <v>122.5228399484605</v>
       </c>
       <c r="Z21">
-        <v>1.411020362978401</v>
+        <v>1.388601041825474</v>
       </c>
     </row>
     <row r="22" spans="1:26">
@@ -2239,67 +2239,67 @@
         <v>50</v>
       </c>
       <c r="F22">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G22">
-        <v>328.1781895777219</v>
+        <v>470.1757000557224</v>
       </c>
       <c r="H22">
-        <v>4.620029638177815</v>
+        <v>20.56738318722897</v>
       </c>
       <c r="I22">
-        <v>323.5581599395441</v>
+        <v>449.6083168684934</v>
       </c>
       <c r="J22">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K22">
-        <v>358.9055269285175</v>
+        <v>506.8292870723187</v>
       </c>
       <c r="L22">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M22">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N22">
-        <v>0.9015134503737708</v>
+        <v>0.8871001110958678</v>
       </c>
       <c r="O22">
-        <v>374.7923865089813</v>
+        <v>554.3985206092869</v>
       </c>
       <c r="P22">
-        <v>15.88685958046365</v>
+        <v>47.56923353696806</v>
       </c>
       <c r="Q22">
-        <v>3.160879910626495</v>
+        <v>2.45569758142344</v>
       </c>
       <c r="R22">
-        <v>308.689071637686</v>
+        <v>390.0136353254196</v>
       </c>
       <c r="S22">
-        <v>23.59134507425685</v>
+        <v>11.65456071892435</v>
       </c>
       <c r="T22">
-        <v>71.03378447311403</v>
+        <v>22.8602586812148</v>
       </c>
       <c r="U22">
-        <v>4.263155601515975</v>
+        <v>3.129399974191302</v>
       </c>
       <c r="V22">
-        <v>303.8622547083766</v>
+        <v>385.2447484531965</v>
       </c>
       <c r="W22">
-        <v>235.9684577406899</v>
+        <v>109.9183008117406</v>
       </c>
       <c r="X22">
         <v>559.526617680234</v>
       </c>
       <c r="Y22">
-        <v>200.6210907517166</v>
+        <v>52.69733060791532</v>
       </c>
       <c r="Z22">
-        <v>1.176189686022186</v>
+        <v>2.08584191160587</v>
       </c>
     </row>
     <row r="23" spans="1:26">
@@ -2319,67 +2319,67 @@
         <v>50</v>
       </c>
       <c r="F23">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G23">
-        <v>231.9429889270301</v>
+        <v>367.7501362333792</v>
       </c>
       <c r="H23">
-        <v>4.418906006300054</v>
+        <v>10.76937301420204</v>
       </c>
       <c r="I23">
-        <v>227.52408292073</v>
+        <v>356.9807632191772</v>
       </c>
       <c r="J23">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K23">
-        <v>296.9579787478386</v>
+        <v>456.8674158090254</v>
       </c>
       <c r="L23">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M23">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N23">
-        <v>0.7661827571702721</v>
+        <v>0.7813662145001785</v>
       </c>
       <c r="O23">
-        <v>318.6587658922971</v>
+        <v>483.2874397381322</v>
       </c>
       <c r="P23">
-        <v>21.70078714445859</v>
+        <v>26.42002392910687</v>
       </c>
       <c r="Q23">
-        <v>2.686772297024211</v>
+        <v>2.906489385159144</v>
       </c>
       <c r="R23">
-        <v>238.652905024488</v>
+        <v>380.0778967034256</v>
       </c>
       <c r="S23">
-        <v>14.68420310152981</v>
+        <v>18.29246790369844</v>
       </c>
       <c r="T23">
-        <v>52.48878084221478</v>
+        <v>34.14777589636937</v>
       </c>
       <c r="U23">
-        <v>3.960599448517327</v>
+        <v>3.530697456410389</v>
       </c>
       <c r="V23">
-        <v>210.0225662291281</v>
+        <v>318.9573653107994</v>
       </c>
       <c r="W23">
-        <v>279.5142575821153</v>
+        <v>150.0575772836681</v>
       </c>
       <c r="X23">
         <v>507.0383405028453</v>
       </c>
       <c r="Y23">
-        <v>210.0803617550067</v>
+        <v>50.17092469381987</v>
       </c>
       <c r="Z23">
-        <v>1.330511120825666</v>
+        <v>2.990927079766429</v>
       </c>
     </row>
     <row r="24" spans="1:26">
@@ -2399,67 +2399,67 @@
         <v>50</v>
       </c>
       <c r="F24">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G24">
-        <v>265.9491229953895</v>
+        <v>451.6234408876893</v>
       </c>
       <c r="H24">
-        <v>5.95923029688861</v>
+        <v>16.39533940260821</v>
       </c>
       <c r="I24">
-        <v>259.9898926985009</v>
+        <v>435.2281014850811</v>
       </c>
       <c r="J24">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K24">
-        <v>309.9798888976302</v>
+        <v>450.5914819641637</v>
       </c>
       <c r="L24">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M24">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N24">
-        <v>0.8387314855266681</v>
+        <v>0.9659039704609762</v>
       </c>
       <c r="O24">
-        <v>324.5934437629356</v>
+        <v>482.0531253370297</v>
       </c>
       <c r="P24">
-        <v>14.6135548653054</v>
+        <v>31.46164337286607</v>
       </c>
       <c r="Q24">
-        <v>3.100623943545315</v>
+        <v>2.729285193352958</v>
       </c>
       <c r="R24">
-        <v>264.6687507819511</v>
+        <v>364.7236845480491</v>
       </c>
       <c r="S24">
-        <v>22.21180587165449</v>
+        <v>15.32193088657199</v>
       </c>
       <c r="T24">
-        <v>44.62809956081828</v>
+        <v>27.54584274210536</v>
       </c>
       <c r="U24">
-        <v>3.798363695633219</v>
+        <v>3.315851625559413</v>
       </c>
       <c r="V24">
-        <v>237.3545686848817</v>
+        <v>380.8635886753444</v>
       </c>
       <c r="W24">
-        <v>263.6228916577257</v>
+        <v>88.38468287114551</v>
       </c>
       <c r="X24">
         <v>523.6127843562266</v>
       </c>
       <c r="Y24">
-        <v>213.6328954585964</v>
+        <v>73.02130239206286</v>
       </c>
       <c r="Z24">
-        <v>1.233999525643361</v>
+        <v>1.210395870462488</v>
       </c>
     </row>
     <row r="25" spans="1:26">
@@ -2479,67 +2479,67 @@
         <v>50</v>
       </c>
       <c r="F25">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G25">
-        <v>227.3191050854858</v>
+        <v>429.9896864663156</v>
       </c>
       <c r="H25">
-        <v>5.0949742706518</v>
+        <v>20.5268962531372</v>
       </c>
       <c r="I25">
-        <v>222.224130814834</v>
+        <v>409.4627902131784</v>
       </c>
       <c r="J25">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K25">
-        <v>296.6278663434629</v>
+        <v>440.8808349435476</v>
       </c>
       <c r="L25">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M25">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N25">
-        <v>0.7491680857708849</v>
+        <v>0.9287380120880234</v>
       </c>
       <c r="O25">
-        <v>307.6886355861905</v>
+        <v>479.3977562864432</v>
       </c>
       <c r="P25">
-        <v>11.06076924272756</v>
+        <v>38.51692134289554</v>
       </c>
       <c r="Q25">
-        <v>3.325683802765135</v>
+        <v>2.52143298160075</v>
       </c>
       <c r="R25">
-        <v>259.8432452268012</v>
+        <v>343.762999119849</v>
       </c>
       <c r="S25">
-        <v>27.81801417550551</v>
+        <v>12.44641938068262</v>
       </c>
       <c r="T25">
-        <v>44.61634014422704</v>
+        <v>20.94762311669982</v>
       </c>
       <c r="U25">
-        <v>3.798100162875365</v>
+        <v>3.042025184881508</v>
       </c>
       <c r="V25">
-        <v>202.8729082076256</v>
+        <v>347.0194548436852</v>
       </c>
       <c r="W25">
-        <v>275.2849482399258</v>
+        <v>88.04628884158149</v>
       </c>
       <c r="X25">
         <v>497.5090790547599</v>
       </c>
       <c r="Y25">
-        <v>200.8812127112969</v>
+        <v>56.62824411121227</v>
       </c>
       <c r="Z25">
-        <v>1.370386730169539</v>
+        <v>1.554812271216944</v>
       </c>
     </row>
     <row r="26" spans="1:26">
@@ -2559,67 +2559,67 @@
         <v>50</v>
       </c>
       <c r="F26">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G26">
-        <v>304.4188535900544</v>
+        <v>430.3939364020328</v>
       </c>
       <c r="H26">
-        <v>6.83730267901715</v>
+        <v>17.66198593077338</v>
       </c>
       <c r="I26">
-        <v>297.5815509110373</v>
+        <v>412.7319504712594</v>
       </c>
       <c r="J26">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K26">
-        <v>297.5815509110373</v>
+        <v>442.237719871928</v>
       </c>
       <c r="L26">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M26">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N26">
-        <v>0.9999999999999998</v>
+        <v>0.9332807490749241</v>
       </c>
       <c r="O26">
-        <v>304.4188535900544</v>
+        <v>476.101568675695</v>
       </c>
       <c r="P26">
-        <v>6.83730267901715</v>
+        <v>33.863848803767</v>
       </c>
       <c r="Q26">
-        <v>3.796011252274924</v>
+        <v>2.643283172638629</v>
       </c>
       <c r="R26">
-        <v>271.6270730062787</v>
+        <v>352.725978168152</v>
       </c>
       <c r="S26">
-        <v>44.52323787336179</v>
+        <v>14.05928698284094</v>
       </c>
       <c r="T26">
-        <v>44.52323787336179</v>
+        <v>24.36837726453713</v>
       </c>
       <c r="U26">
-        <v>3.796011252274924</v>
+        <v>3.193286277998537</v>
       </c>
       <c r="V26">
-        <v>271.6270730062787</v>
+        <v>356.3321731563176</v>
       </c>
       <c r="W26">
-        <v>187.670887350804</v>
+        <v>72.52048779058185</v>
       </c>
       <c r="X26">
         <v>485.2524382618413</v>
       </c>
       <c r="Y26">
-        <v>187.670887350804</v>
+        <v>43.01471838991324</v>
       </c>
       <c r="Z26">
-        <v>1</v>
+        <v>1.685945892594465</v>
       </c>
     </row>
     <row r="27" spans="1:26">
@@ -2639,67 +2639,67 @@
         <v>50</v>
       </c>
       <c r="F27">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G27">
-        <v>294.0171919928602</v>
+        <v>457.5178850504922</v>
       </c>
       <c r="H27">
-        <v>6.135253360608734</v>
+        <v>15.68625857018971</v>
       </c>
       <c r="I27">
-        <v>287.8819386322515</v>
+        <v>441.8316264803025</v>
       </c>
       <c r="J27">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K27">
-        <v>300.8587115104302</v>
+        <v>482.194660157151</v>
       </c>
       <c r="L27">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M27">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N27">
-        <v>0.9568675515060535</v>
+        <v>0.9162930720475131</v>
       </c>
       <c r="O27">
-        <v>314.9959075724033</v>
+        <v>513.5031305885631</v>
       </c>
       <c r="P27">
-        <v>14.13719606197313</v>
+        <v>31.30847043141211</v>
       </c>
       <c r="Q27">
-        <v>3.103750304407467</v>
+        <v>2.797367444172983</v>
       </c>
       <c r="R27">
-        <v>256.980384929613</v>
+        <v>394.6133642454662</v>
       </c>
       <c r="S27">
-        <v>22.28135665598453</v>
+        <v>16.40141225402567</v>
       </c>
       <c r="T27">
-        <v>47.92258358564153</v>
+        <v>29.16679480981927</v>
       </c>
       <c r="U27">
-        <v>3.869586866912319</v>
+        <v>3.373030898165326</v>
       </c>
       <c r="V27">
-        <v>264.1410428028603</v>
+        <v>388.921391646442</v>
       </c>
       <c r="W27">
-        <v>249.0813330418757</v>
+        <v>95.13164519382474</v>
       </c>
       <c r="X27">
         <v>536.9632716741272</v>
       </c>
       <c r="Y27">
-        <v>236.104560163697</v>
+        <v>54.76861151697619</v>
       </c>
       <c r="Z27">
-        <v>1.054961974767373</v>
+        <v>1.736973835174506</v>
       </c>
     </row>
     <row r="28" spans="1:26">
@@ -2719,67 +2719,67 @@
         <v>50</v>
       </c>
       <c r="F28">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G28">
-        <v>260.5833789962463</v>
+        <v>452.0007156568746</v>
       </c>
       <c r="H28">
-        <v>3.029524242492707</v>
+        <v>13.30817770498981</v>
       </c>
       <c r="I28">
-        <v>257.5538547537536</v>
+        <v>438.6925379518848</v>
       </c>
       <c r="J28">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K28">
-        <v>346.924982384792</v>
+        <v>495.4272329501111</v>
       </c>
       <c r="L28">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M28">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N28">
-        <v>0.7423906257292465</v>
+        <v>0.8854832935598044</v>
       </c>
       <c r="O28">
-        <v>353.1497625831603</v>
+        <v>535.1268424170505</v>
       </c>
       <c r="P28">
-        <v>6.224780198368315</v>
+        <v>39.69960946693949</v>
       </c>
       <c r="Q28">
-        <v>4.038354091343117</v>
+        <v>2.601162456884979</v>
       </c>
       <c r="R28">
-        <v>321.7871158029997</v>
+        <v>392.1620992517126</v>
       </c>
       <c r="S28">
-        <v>56.73288876541063</v>
+        <v>13.47939815031899</v>
       </c>
       <c r="T28">
-        <v>86.01462082436977</v>
+        <v>33.96413285700267</v>
       </c>
       <c r="U28">
-        <v>4.454517291389211</v>
+        <v>3.525305051830169</v>
       </c>
       <c r="V28">
-        <v>244.058786630887</v>
+        <v>391.7771518578306</v>
       </c>
       <c r="W28">
-        <v>291.9345281903816</v>
+        <v>110.7958449922504</v>
       </c>
       <c r="X28">
         <v>549.4883829441352</v>
       </c>
       <c r="Y28">
-        <v>202.5634005593432</v>
+        <v>54.06114999402411</v>
       </c>
       <c r="Z28">
-        <v>1.441200766694555</v>
+        <v>2.049454090497478</v>
       </c>
     </row>
     <row r="29" spans="1:26">
@@ -2799,67 +2799,67 @@
         <v>50</v>
       </c>
       <c r="F29">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G29">
-        <v>278.4580197654479</v>
+        <v>389.314689559403</v>
       </c>
       <c r="H29">
-        <v>3.455687689338108</v>
+        <v>6.813828621167892</v>
       </c>
       <c r="I29">
-        <v>275.0023320761098</v>
+        <v>382.5008609382351</v>
       </c>
       <c r="J29">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K29">
-        <v>308.1340763707825</v>
+        <v>432.11698493145</v>
       </c>
       <c r="L29">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M29">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N29">
-        <v>0.8924762081334854</v>
+        <v>0.8851789544882482</v>
       </c>
       <c r="O29">
-        <v>326.6632836478669</v>
+        <v>459.4911857614626</v>
       </c>
       <c r="P29">
-        <v>18.52920727708432</v>
+        <v>27.37420083001247</v>
       </c>
       <c r="Q29">
-        <v>2.869581667894255</v>
+        <v>2.82051876508705</v>
       </c>
       <c r="R29">
-        <v>254.9630028478486</v>
+        <v>354.9075378111385</v>
       </c>
       <c r="S29">
-        <v>17.62964161191407</v>
+        <v>16.78555617439931</v>
       </c>
       <c r="T29">
-        <v>80.57962547500435</v>
+        <v>57.13596733999957</v>
       </c>
       <c r="U29">
-        <v>4.389245831886979</v>
+        <v>4.045433819233327</v>
       </c>
       <c r="V29">
-        <v>259.8344692893793</v>
+        <v>354.9359681957025</v>
       </c>
       <c r="W29">
-        <v>218.2240320315516</v>
+        <v>110.7255031694264</v>
       </c>
       <c r="X29">
         <v>493.2263641076614</v>
       </c>
       <c r="Y29">
-        <v>185.0922877368789</v>
+        <v>61.10937917621141</v>
       </c>
       <c r="Z29">
-        <v>1.179001214474002</v>
+        <v>1.811923221313455</v>
       </c>
     </row>
     <row r="30" spans="1:26">
@@ -2879,67 +2879,67 @@
         <v>50</v>
       </c>
       <c r="F30">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G30">
-        <v>297.5429064960634</v>
+        <v>393.623712442282</v>
       </c>
       <c r="H30">
-        <v>5.877594931905081</v>
+        <v>10.95773422002828</v>
       </c>
       <c r="I30">
-        <v>291.6653115641583</v>
+        <v>382.6659782222537</v>
       </c>
       <c r="J30">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K30">
-        <v>309.7956350620723</v>
+        <v>453.3187195470256</v>
       </c>
       <c r="L30">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M30">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N30">
-        <v>0.9414765043597813</v>
+        <v>0.844143340483775</v>
       </c>
       <c r="O30">
-        <v>327.5859822343299</v>
+        <v>489.3838804268715</v>
       </c>
       <c r="P30">
-        <v>17.79034717225764</v>
+        <v>36.06516087984588</v>
       </c>
       <c r="Q30">
-        <v>2.913094545280688</v>
+        <v>2.607819886270554</v>
       </c>
       <c r="R30">
-        <v>257.9706717559189</v>
+        <v>359.2672758030167</v>
       </c>
       <c r="S30">
-        <v>18.41369249641004</v>
+        <v>13.56943566832532</v>
       </c>
       <c r="T30">
-        <v>50.62324129907707</v>
+        <v>35.92199852071845</v>
       </c>
       <c r="U30">
-        <v>3.924410785051946</v>
+        <v>3.581349879990891</v>
       </c>
       <c r="V30">
-        <v>268.5992146232233</v>
+        <v>343.4224980883833</v>
       </c>
       <c r="W30">
-        <v>238.0892592200448</v>
+        <v>147.0885925619494</v>
       </c>
       <c r="X30">
         <v>529.7545707842031</v>
       </c>
       <c r="Y30">
-        <v>219.9589357221308</v>
+        <v>76.43585123717753</v>
       </c>
       <c r="Z30">
-        <v>1.082425946635865</v>
+        <v>1.924340347902179</v>
       </c>
     </row>
     <row r="31" spans="1:26">
@@ -2959,67 +2959,67 @@
         <v>50</v>
       </c>
       <c r="F31">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G31">
-        <v>316.0662764079174</v>
+        <v>427.3946867495006</v>
       </c>
       <c r="H31">
-        <v>11.22116689463374</v>
+        <v>25.30641755161163</v>
       </c>
       <c r="I31">
-        <v>304.8451095132837</v>
+        <v>402.088269197889</v>
       </c>
       <c r="J31">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K31">
-        <v>306.7051275693361</v>
+        <v>431.6075349411582</v>
       </c>
       <c r="L31">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M31">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N31">
-        <v>0.9939354843174835</v>
+        <v>0.931606231695437</v>
       </c>
       <c r="O31">
-        <v>318.3380255521103</v>
+        <v>470.0406820152731</v>
       </c>
       <c r="P31">
-        <v>11.63289798277416</v>
+        <v>38.43314707411493</v>
       </c>
       <c r="Q31">
-        <v>3.309276674502406</v>
+        <v>2.503898956135993</v>
       </c>
       <c r="R31">
-        <v>268.2086496180755</v>
+        <v>335.3748181012608</v>
       </c>
       <c r="S31">
-        <v>27.36532427461334</v>
+        <v>12.23008568902362</v>
       </c>
       <c r="T31">
-        <v>28.16697045643878</v>
+        <v>16.88878664385597</v>
       </c>
       <c r="U31">
-        <v>3.338150031072552</v>
+        <v>2.826649889509519</v>
       </c>
       <c r="V31">
-        <v>267.3871708952918</v>
+        <v>330.5558868217443</v>
       </c>
       <c r="W31">
-        <v>179.5361056245138</v>
+        <v>82.29294593990846</v>
       </c>
       <c r="X31">
         <v>484.3812151377975</v>
       </c>
       <c r="Y31">
-        <v>177.6760875684614</v>
+        <v>52.7736801966393</v>
       </c>
       <c r="Z31">
-        <v>1.010468589676345</v>
+        <v>1.559355831036945</v>
       </c>
     </row>
   </sheetData>
